--- a/WIP/Users/VanTTC/BSN_MongoDB_Database_Design_v1.1.xlsx
+++ b/WIP/Users/VanTTC/BSN_MongoDB_Database_Design_v1.1.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Collections" sheetId="1" r:id="rId1"/>
     <sheet name="Description" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,9 +81,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Conent</t>
-  </si>
-  <si>
     <t>Followed[]</t>
   </si>
   <si>
@@ -382,6 +379,9 @@
   </si>
   <si>
     <t>Authortag</t>
+  </si>
+  <si>
+    <t>SSNimage</t>
   </si>
 </sst>
 </file>
@@ -1048,29 +1048,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1089,42 +1120,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1136,38 +1197,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1192,91 +1269,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1560,9 +1560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Y42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:G21"/>
-    </sheetView>
+    <sheetView zoomScale="59" zoomScaleNormal="59" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1581,592 +1579,592 @@
   <sheetData>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="103"/>
-      <c r="E4" s="101" t="s">
+      <c r="A4" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="88"/>
+      <c r="C4" s="84"/>
+      <c r="E4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="103"/>
-      <c r="J4" s="101" t="s">
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="84"/>
+      <c r="J4" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="84"/>
+      <c r="O4" s="83" t="s">
+        <v>98</v>
+      </c>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="84"/>
+      <c r="S4" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="T4" s="88"/>
+      <c r="U4" s="84"/>
+      <c r="W4" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="84"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="85"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="86"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="86"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="86"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="86"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="86"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="86"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
+      <c r="E6" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="73"/>
+      <c r="J6" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="73"/>
+      <c r="O6" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="73"/>
+      <c r="S6" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" s="72"/>
+      <c r="U6" s="73"/>
+      <c r="W6" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="73"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="72"/>
+      <c r="C7" s="73"/>
+      <c r="E7" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="73"/>
+      <c r="J7" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="73"/>
+      <c r="O7" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="73"/>
+      <c r="S7" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="72"/>
+      <c r="U7" s="73"/>
+      <c r="W7" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="73"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="72"/>
+      <c r="C8" s="73"/>
+      <c r="E8" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="73"/>
+      <c r="J8" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="103"/>
-      <c r="O4" s="101" t="s">
-        <v>99</v>
-      </c>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="103"/>
-      <c r="S4" s="108" t="s">
-        <v>109</v>
-      </c>
-      <c r="T4" s="102"/>
-      <c r="U4" s="103"/>
-      <c r="W4" s="108" t="s">
-        <v>48</v>
-      </c>
-      <c r="X4" s="102"/>
-      <c r="Y4" s="103"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="106"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="106"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="106"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="106"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="105"/>
-      <c r="U5" s="106"/>
-      <c r="W5" s="104"/>
-      <c r="X5" s="105"/>
-      <c r="Y5" s="106"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="74"/>
-      <c r="E6" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="74"/>
-      <c r="J6" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="74"/>
-      <c r="O6" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="74"/>
-      <c r="S6" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="T6" s="73"/>
-      <c r="U6" s="74"/>
-      <c r="W6" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="X6" s="73"/>
-      <c r="Y6" s="74"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="72" t="s">
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="73"/>
+      <c r="O8" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="74"/>
-      <c r="E7" s="72" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
-      <c r="J7" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="74"/>
-      <c r="O7" s="72" t="s">
+      <c r="P8" s="72"/>
+      <c r="Q8" s="73"/>
+      <c r="S8" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="T8" s="72"/>
+      <c r="U8" s="73"/>
+      <c r="W8" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="73"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="E9" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
+      <c r="J9" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="73"/>
+      <c r="O9" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="73"/>
+      <c r="S9" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="81"/>
+      <c r="U9" s="93"/>
+      <c r="W9" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="73"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="E10" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="73"/>
+      <c r="J10" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="73"/>
+      <c r="O10" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="73"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="95"/>
+      <c r="W10" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="X10" s="81"/>
+      <c r="Y10" s="93"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="101" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="102"/>
+      <c r="C11" s="103"/>
+      <c r="E11" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="73"/>
+      <c r="J11" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="93"/>
+      <c r="O11" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="74"/>
-      <c r="S7" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="T7" s="73"/>
-      <c r="U7" s="74"/>
-      <c r="W7" s="72" t="s">
+      <c r="P11" s="72"/>
+      <c r="Q11" s="73"/>
+      <c r="S11" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="T11" s="91"/>
+      <c r="U11" s="3"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="94"/>
+      <c r="Y11" s="95"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="71"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="73"/>
+      <c r="E12" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="74"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="74"/>
-      <c r="E8" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="74"/>
-      <c r="J8" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="74"/>
-      <c r="O8" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="74"/>
-      <c r="S8" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="T8" s="73"/>
-      <c r="U8" s="74"/>
-      <c r="W8" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="74"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="74"/>
-      <c r="E9" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="74"/>
-      <c r="J9" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="74"/>
-      <c r="O9" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="74"/>
-      <c r="S9" s="99" t="s">
-        <v>32</v>
-      </c>
-      <c r="T9" s="91"/>
-      <c r="U9" s="100"/>
-      <c r="W9" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="74"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="E10" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="74"/>
-      <c r="J10" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="74"/>
-      <c r="O10" s="72" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="74"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="107"/>
-      <c r="W10" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="X10" s="91"/>
-      <c r="Y10" s="100"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="88"/>
-      <c r="E11" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="74"/>
-      <c r="J11" s="99" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="100"/>
-      <c r="O11" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="74"/>
-      <c r="S11" s="89" t="s">
-        <v>33</v>
-      </c>
-      <c r="T11" s="71"/>
-      <c r="U11" s="3"/>
-      <c r="W11" s="89"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="107"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="74"/>
-      <c r="E12" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="74"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="107"/>
-      <c r="O12" s="99" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" s="91"/>
-      <c r="Q12" s="100"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="73"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="95"/>
+      <c r="O12" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="93"/>
       <c r="S12" s="9"/>
       <c r="T12" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U12" s="3"/>
       <c r="W12" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X12" s="31"/>
       <c r="Y12" s="3"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="86"/>
+      <c r="A13" s="99" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="100"/>
       <c r="C13" s="3"/>
-      <c r="E13" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="74"/>
-      <c r="J13" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="90"/>
-      <c r="L13" s="71"/>
+      <c r="E13" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="73"/>
+      <c r="J13" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="94"/>
+      <c r="L13" s="91"/>
       <c r="M13" s="3"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="107"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="84"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="95"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="76"/>
       <c r="W13" s="22"/>
       <c r="X13" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="E14" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="100"/>
+      <c r="E14" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="93"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="91" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="92"/>
+      <c r="K14" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="82"/>
       <c r="M14" s="3"/>
-      <c r="O14" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="P14" s="71"/>
+      <c r="O14" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" s="91"/>
       <c r="Q14" s="3"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="W14" s="29"/>
       <c r="X14" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y14" s="24"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="84"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="95"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="74"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="76"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="106"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="73"/>
       <c r="O15" s="9"/>
       <c r="P15" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="W15" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X15" s="23"/>
       <c r="Y15" s="24"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="75" t="s">
+      <c r="E16" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="76"/>
-      <c r="G16" s="77"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="79"/>
       <c r="H16" s="3"/>
-      <c r="J16" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="76"/>
-      <c r="L16" s="77"/>
+      <c r="J16" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="78"/>
+      <c r="L16" s="79"/>
       <c r="M16" s="3"/>
       <c r="O16" s="1"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="3"/>
       <c r="W16" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X16" s="26"/>
       <c r="Y16" s="27"/>
     </row>
     <row r="17" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E17" s="1"/>
-      <c r="F17" s="73" t="s">
+      <c r="F17" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="78"/>
+      <c r="G17" s="80"/>
       <c r="H17" s="3"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="78"/>
+      <c r="K17" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="80"/>
       <c r="M17" s="3"/>
-      <c r="O17" s="89" t="s">
-        <v>43</v>
-      </c>
-      <c r="P17" s="71"/>
+      <c r="O17" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="91"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="1"/>
-      <c r="F18" s="73" t="s">
+      <c r="F18" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="78"/>
+      <c r="G18" s="80"/>
       <c r="H18" s="3"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="91" t="s">
+      <c r="K18" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="92"/>
+      <c r="L18" s="82"/>
       <c r="M18" s="3"/>
       <c r="O18" s="9"/>
       <c r="P18" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="102"/>
-      <c r="C19" s="103"/>
+      <c r="A19" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="88"/>
+      <c r="C19" s="84"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="73" t="s">
+      <c r="F19" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="78"/>
+      <c r="G19" s="80"/>
       <c r="H19" s="3"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="74"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="74"/>
-      <c r="S19" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="T19" s="103"/>
-      <c r="W19" s="108" t="s">
-        <v>57</v>
-      </c>
-      <c r="X19" s="103"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="73"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="73"/>
+      <c r="S19" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="T19" s="84"/>
+      <c r="W19" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="X19" s="84"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="106"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="86"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="73" t="s">
+      <c r="F20" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="78"/>
+      <c r="G20" s="80"/>
       <c r="H20" s="3"/>
-      <c r="J20" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="K20" s="76"/>
-      <c r="L20" s="77"/>
+      <c r="J20" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="78"/>
+      <c r="L20" s="79"/>
       <c r="M20" s="3"/>
-      <c r="O20" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="P20" s="77"/>
+      <c r="O20" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" s="79"/>
       <c r="Q20" s="3"/>
-      <c r="S20" s="104"/>
-      <c r="T20" s="106"/>
-      <c r="W20" s="104"/>
-      <c r="X20" s="106"/>
+      <c r="S20" s="85"/>
+      <c r="T20" s="86"/>
+      <c r="W20" s="85"/>
+      <c r="X20" s="86"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="74"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="73" t="s">
+      <c r="F21" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="78"/>
+      <c r="G21" s="80"/>
       <c r="H21" s="3"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="73" t="s">
+      <c r="K21" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="L21" s="78"/>
+      <c r="L21" s="80"/>
       <c r="M21" s="3"/>
       <c r="O21" s="1"/>
       <c r="P21" s="12" t="s">
         <v>1</v>
       </c>
       <c r="Q21" s="3"/>
-      <c r="S21" s="72" t="s">
+      <c r="S21" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="T21" s="74"/>
-      <c r="W21" s="72" t="s">
+      <c r="T21" s="73"/>
+      <c r="W21" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="X21" s="74"/>
+      <c r="X21" s="73"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="74"/>
+      <c r="A22" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="91" t="s">
+      <c r="F22" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="92"/>
+      <c r="G22" s="82"/>
       <c r="H22" s="3"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="L22" s="92"/>
+      <c r="K22" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" s="82"/>
       <c r="M22" s="3"/>
       <c r="O22" s="1"/>
       <c r="P22" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q22" s="3"/>
+      <c r="S22" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="T22" s="73"/>
+      <c r="W22" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="Q22" s="3"/>
-      <c r="S22" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="T22" s="74"/>
-      <c r="W22" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="X22" s="74"/>
+      <c r="X22" s="73"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="82"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="84"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="76"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="74"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="74"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="73"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="73"/>
       <c r="O23" s="1"/>
       <c r="P23" s="12" t="s">
         <v>17</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="S23" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T23" s="24"/>
-      <c r="W23" s="72" t="s">
+      <c r="W23" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="X23" s="74"/>
+      <c r="X23" s="73"/>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="75" t="s">
+      <c r="E24" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="76"/>
-      <c r="G24" s="77"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="79"/>
       <c r="H24" s="3"/>
-      <c r="J24" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24" s="76"/>
-      <c r="L24" s="77"/>
+      <c r="J24" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="78"/>
+      <c r="L24" s="79"/>
       <c r="M24" s="3"/>
       <c r="O24" s="9"/>
       <c r="P24" s="13" t="s">
@@ -2174,70 +2172,70 @@
       </c>
       <c r="Q24" s="3"/>
       <c r="S24" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T24" s="24"/>
-      <c r="W24" s="72" t="s">
+      <c r="W24" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="X24" s="74"/>
+      <c r="X24" s="73"/>
     </row>
     <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E25" s="1"/>
-      <c r="F25" s="73" t="s">
+      <c r="F25" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="78"/>
+      <c r="G25" s="80"/>
       <c r="H25" s="3"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="73" t="s">
+      <c r="K25" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="L25" s="78"/>
+      <c r="L25" s="80"/>
       <c r="M25" s="3"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="84"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="76"/>
       <c r="S25" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T25" s="24"/>
-      <c r="W25" s="82"/>
-      <c r="X25" s="84"/>
+      <c r="W25" s="74"/>
+      <c r="X25" s="76"/>
     </row>
     <row r="26" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E26" s="1"/>
-      <c r="F26" s="91" t="s">
+      <c r="F26" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="92"/>
+      <c r="G26" s="82"/>
       <c r="H26" s="3"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="73" t="s">
+      <c r="K26" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="78"/>
+      <c r="L26" s="80"/>
       <c r="M26" s="3"/>
-      <c r="S26" s="72" t="s">
+      <c r="S26" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="T26" s="74"/>
+      <c r="T26" s="73"/>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="1"/>
-      <c r="F27" s="81" t="s">
+      <c r="F27" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="77"/>
+      <c r="G27" s="79"/>
       <c r="H27" s="3"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="73" t="s">
+      <c r="K27" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="L27" s="78"/>
+      <c r="L27" s="80"/>
       <c r="M27" s="3"/>
-      <c r="S27" s="82"/>
-      <c r="T27" s="84"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="76"/>
     </row>
     <row r="28" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E28" s="1"/>
@@ -2247,13 +2245,13 @@
       </c>
       <c r="H28" s="3"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="73" t="s">
+      <c r="K28" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="L28" s="78"/>
+      <c r="L28" s="80"/>
       <c r="M28" s="3"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="73"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E29" s="1"/>
@@ -2263,24 +2261,24 @@
       </c>
       <c r="H29" s="3"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="80"/>
+      <c r="K29" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="112"/>
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E30" s="1"/>
       <c r="F30" s="16"/>
       <c r="G30" s="12" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="H30" s="3"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="L30" s="77"/>
+      <c r="K30" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30" s="79"/>
       <c r="M30" s="3"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -2293,15 +2291,15 @@
       <c r="J31" s="1"/>
       <c r="K31" s="16"/>
       <c r="L31" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E32" s="72"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="74"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="73"/>
       <c r="J32" s="1"/>
       <c r="K32" s="17"/>
       <c r="L32" s="13" t="s">
@@ -2310,11 +2308,11 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E33" s="109" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="110"/>
-      <c r="G33" s="111"/>
+      <c r="E33" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="97"/>
+      <c r="G33" s="98"/>
       <c r="H33" s="3"/>
       <c r="J33" s="1"/>
       <c r="K33" s="2"/>
@@ -2323,36 +2321,36 @@
     </row>
     <row r="34" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E34" s="9"/>
-      <c r="F34" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="92"/>
+      <c r="F34" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="82"/>
       <c r="H34" s="3"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="L34" s="71"/>
+      <c r="K34" s="111" t="s">
+        <v>40</v>
+      </c>
+      <c r="L34" s="91"/>
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E35" s="72"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="74"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="73"/>
       <c r="J35" s="9"/>
       <c r="K35" s="17"/>
       <c r="L35" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="96" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="97"/>
-      <c r="G36" s="98"/>
+      <c r="E36" s="107" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="108"/>
+      <c r="G36" s="109"/>
       <c r="H36" s="3"/>
       <c r="J36" s="4"/>
       <c r="K36" s="5"/>
@@ -2361,93 +2359,84 @@
     </row>
     <row r="37" spans="5:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E37" s="9"/>
-      <c r="F37" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="92"/>
+      <c r="F37" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="82"/>
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E38" s="72"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="74"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="73"/>
     </row>
     <row r="39" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E39" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="90"/>
-      <c r="G39" s="71"/>
+      <c r="E39" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="94"/>
+      <c r="G39" s="91"/>
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E40" s="9"/>
-      <c r="F40" s="91" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="92"/>
+      <c r="F40" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="82"/>
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="82"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="84"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="76"/>
     </row>
     <row r="42" spans="5:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="S19:T20"/>
-    <mergeCell ref="W19:X20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="O4:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="W4:Y5"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="S4:U5"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A19:C20"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="J4:M5"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="K14:L14"/>
@@ -2472,47 +2461,56 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A19:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="W4:Y5"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="S4:U5"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="S19:T20"/>
+    <mergeCell ref="W19:X20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="J24:L24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4:H5" location="Description!B4" display="Users Collection"/>
@@ -2534,9 +2532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G119"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2548,1488 +2544,1479 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="113" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="135"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="112" t="s">
+      <c r="G2" s="117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="114"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="118"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="147" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="137" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="165" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="157" t="s">
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="148"/>
+      <c r="C5" s="133" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="38"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="148"/>
+      <c r="C6" s="133" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="38"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="148"/>
+      <c r="C7" s="133" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="38"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="148"/>
+      <c r="C8" s="133" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="38"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="148"/>
+      <c r="C9" s="133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="38"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="148"/>
+      <c r="C10" s="133" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="38"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="148"/>
+      <c r="C11" s="133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="38"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="148"/>
+      <c r="C12" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="148"/>
+      <c r="C13" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="148"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="133"/>
+      <c r="F14" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="148"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="133" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="133"/>
+      <c r="F15" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="148"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="133" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="133"/>
+      <c r="F16" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="148"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="133" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="164"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="159"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="160" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="134" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="36" t="s">
+      <c r="E17" s="133"/>
+      <c r="F17" s="37" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="161"/>
-      <c r="C5" s="130" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="38"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="161"/>
-      <c r="C6" s="130" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="38"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="161"/>
-      <c r="C7" s="130" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="38"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="161"/>
-      <c r="C8" s="130" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="38"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="161"/>
-      <c r="C9" s="130" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="38"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="161"/>
-      <c r="C10" s="130" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="38"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="161"/>
-      <c r="C11" s="130" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="38"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="161"/>
-      <c r="C12" s="131" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="40"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="161"/>
-      <c r="C13" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="36"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="161"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="130" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="130"/>
-      <c r="F14" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="38"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="161"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="130" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="130"/>
-      <c r="F15" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="161"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="130" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="130"/>
-      <c r="F16" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="38" t="s">
+      <c r="G17" s="38"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="148"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="119" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="120"/>
+      <c r="F18" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="38"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="148"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="126" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="126"/>
+      <c r="F19" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="148"/>
+      <c r="C20" s="46" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="161"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="130" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="130"/>
-      <c r="F17" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="38"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="161"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="167" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="168"/>
-      <c r="F18" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="38"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="161"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="131" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="131"/>
-      <c r="F19" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="40"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="161"/>
-      <c r="C20" s="46" t="s">
-        <v>74</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="14"/>
       <c r="F20" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G20" s="36"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="161"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="118" t="s">
+      <c r="B21" s="148"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="78"/>
+      <c r="E21" s="80"/>
       <c r="F21" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="38"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="161"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="120" t="s">
+      <c r="B22" s="148"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="132" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="82"/>
+      <c r="F22" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="92"/>
-      <c r="F22" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="38" t="s">
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="148"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="45" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="161"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="45" t="s">
-        <v>77</v>
       </c>
       <c r="E23" s="45"/>
       <c r="F23" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G23" s="38"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="161"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="121"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="129"/>
       <c r="E24" s="37" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24" s="38"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="161"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="121"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="129"/>
       <c r="E25" s="37" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G25" s="38"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="161"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="121"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="129"/>
       <c r="E26" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G26" s="38"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="161"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="147"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="130"/>
       <c r="E27" s="39" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="40"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="148"/>
+      <c r="C28" s="145" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="40"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="161"/>
-      <c r="C28" s="148" t="s">
+      <c r="D28" s="144"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="148"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="132" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="82"/>
+      <c r="F29" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="40"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="148"/>
+      <c r="C30" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="132"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="36" t="s">
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="36" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="161"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="120" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="92"/>
-      <c r="F29" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" s="40"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="161"/>
-      <c r="C30" s="148" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="132"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="G30" s="36" t="s">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="148"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="144" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="144"/>
+      <c r="F31" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="40"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="148"/>
+      <c r="C32" s="145" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="161"/>
-      <c r="C31" s="149"/>
-      <c r="D31" s="132" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="132"/>
-      <c r="F31" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="G31" s="40"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="161"/>
-      <c r="C32" s="148" t="s">
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="132"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" s="36" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="161"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="118" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="78"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="159"/>
+      <c r="D33" s="131" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="80"/>
       <c r="F33" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="38"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="162"/>
-      <c r="C34" s="153"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="133"/>
+      <c r="B34" s="149"/>
+      <c r="C34" s="160"/>
+      <c r="D34" s="161"/>
+      <c r="E34" s="162"/>
       <c r="F34" s="47"/>
       <c r="G34" s="48"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="113" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="116" t="s">
+      <c r="B35" s="138" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="117"/>
-      <c r="E35" s="124"/>
+      <c r="D35" s="142"/>
+      <c r="E35" s="143"/>
       <c r="F35" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G35" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="114"/>
-      <c r="C36" s="118" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="73"/>
-      <c r="E36" s="78"/>
+      <c r="B36" s="139"/>
+      <c r="C36" s="131" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="72"/>
+      <c r="E36" s="80"/>
       <c r="F36" s="60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="114"/>
-      <c r="C37" s="118" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="73"/>
-      <c r="E37" s="78"/>
+      <c r="B37" s="139"/>
+      <c r="C37" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="72"/>
+      <c r="E37" s="80"/>
       <c r="F37" s="60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="114"/>
-      <c r="C38" s="118" t="s">
+      <c r="B38" s="139"/>
+      <c r="C38" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="73"/>
-      <c r="E38" s="78"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="80"/>
       <c r="F38" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="139"/>
+      <c r="C39" s="132" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="81"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="139"/>
+      <c r="C40" s="145" t="s">
         <v>87</v>
       </c>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="114"/>
-      <c r="C39" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="91"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="G39" s="15"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="114"/>
-      <c r="C40" s="148" t="s">
+      <c r="D40" s="155"/>
+      <c r="E40" s="156"/>
+      <c r="F40" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="123"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="G40" s="20" t="s">
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="139"/>
+      <c r="C41" s="146"/>
+      <c r="D41" s="144" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="144"/>
+      <c r="F41" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" s="15"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="139"/>
+      <c r="C42" s="42" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="114"/>
-      <c r="C41" s="149"/>
-      <c r="D41" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" s="132"/>
-      <c r="F41" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="G41" s="15"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="114"/>
-      <c r="C42" s="42" t="s">
-        <v>90</v>
       </c>
       <c r="D42" s="55"/>
       <c r="E42" s="57"/>
       <c r="F42" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="114"/>
-      <c r="C43" s="150"/>
+      <c r="B43" s="139"/>
+      <c r="C43" s="157"/>
       <c r="D43" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="114"/>
-      <c r="C44" s="151"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="158"/>
       <c r="D44" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G44" s="15"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="114"/>
+      <c r="B45" s="139"/>
       <c r="C45" s="43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="56"/>
       <c r="E45" s="63"/>
       <c r="F45" s="63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="114"/>
-      <c r="C46" s="146"/>
+      <c r="B46" s="139"/>
+      <c r="C46" s="150"/>
       <c r="D46" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="114"/>
-      <c r="C47" s="147"/>
+      <c r="B47" s="139"/>
+      <c r="C47" s="130"/>
       <c r="D47" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G47" s="15"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="114"/>
+      <c r="B48" s="139"/>
       <c r="C48" s="65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D48" s="58"/>
       <c r="E48" s="63"/>
       <c r="F48" s="63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="114"/>
-      <c r="C49" s="121"/>
+      <c r="B49" s="139"/>
+      <c r="C49" s="129"/>
       <c r="D49" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="114"/>
-      <c r="C50" s="121"/>
+      <c r="B50" s="139"/>
+      <c r="C50" s="129"/>
       <c r="D50" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="114"/>
-      <c r="C51" s="121"/>
+      <c r="B51" s="139"/>
+      <c r="C51" s="129"/>
       <c r="D51" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="114"/>
-      <c r="C52" s="121"/>
+      <c r="B52" s="139"/>
+      <c r="C52" s="129"/>
       <c r="D52" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="114"/>
-      <c r="C53" s="121"/>
+      <c r="B53" s="139"/>
+      <c r="C53" s="129"/>
       <c r="D53" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="114"/>
-      <c r="C54" s="121"/>
+      <c r="B54" s="139"/>
+      <c r="C54" s="129"/>
       <c r="D54" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E54" s="43"/>
       <c r="F54" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="114"/>
-      <c r="C55" s="121"/>
-      <c r="D55" s="147"/>
+      <c r="B55" s="139"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="130"/>
       <c r="E55" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G55" s="3"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="114"/>
-      <c r="C56" s="121"/>
-      <c r="D56" s="125"/>
+      <c r="B56" s="139"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="152"/>
       <c r="E56" s="39" t="s">
         <v>17</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G56" s="15"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="114"/>
-      <c r="C57" s="121"/>
+      <c r="B57" s="139"/>
+      <c r="C57" s="129"/>
       <c r="D57" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E57" s="52"/>
       <c r="F57" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="114"/>
-      <c r="C58" s="121"/>
-      <c r="D58" s="135"/>
+      <c r="B58" s="139"/>
+      <c r="C58" s="129"/>
+      <c r="D58" s="153"/>
       <c r="E58" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F58" s="60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G58" s="3"/>
     </row>
     <row r="59" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="115"/>
-      <c r="C59" s="122"/>
-      <c r="D59" s="127"/>
+      <c r="B59" s="140"/>
+      <c r="C59" s="151"/>
+      <c r="D59" s="154"/>
       <c r="E59" s="47"/>
       <c r="F59" s="51"/>
       <c r="G59" s="8"/>
     </row>
     <row r="60" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="143" t="s">
+      <c r="B60" s="170" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="141" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="142"/>
+      <c r="E60" s="143"/>
+      <c r="F60" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="G60" s="64"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="171"/>
+      <c r="C61" s="131" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="116" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="117"/>
-      <c r="E60" s="124"/>
-      <c r="F60" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="G60" s="64"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="144"/>
-      <c r="C61" s="118" t="s">
+      <c r="D61" s="72"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="171"/>
+      <c r="C62" s="131" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="72"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="171"/>
+      <c r="C63" s="131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="72"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="171"/>
+      <c r="C64" s="131" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="72"/>
+      <c r="E64" s="80"/>
+      <c r="F64" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="G64" s="3"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="171"/>
+      <c r="C65" s="131" t="s">
         <v>100</v>
       </c>
-      <c r="D61" s="73"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="144"/>
-      <c r="C62" s="118" t="s">
-        <v>28</v>
-      </c>
-      <c r="D62" s="73"/>
-      <c r="E62" s="78"/>
-      <c r="F62" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="144"/>
-      <c r="C63" s="118" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="73"/>
-      <c r="E63" s="78"/>
-      <c r="F63" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="144"/>
-      <c r="C64" s="118" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="73"/>
-      <c r="E64" s="78"/>
-      <c r="F64" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="144"/>
-      <c r="C65" s="118" t="s">
+      <c r="D65" s="72"/>
+      <c r="E65" s="80"/>
+      <c r="F65" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="G65" s="3"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="171"/>
+      <c r="C66" s="132" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" s="81"/>
+      <c r="E66" s="82"/>
+      <c r="F66" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="D65" s="73"/>
-      <c r="E65" s="78"/>
-      <c r="F65" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="144"/>
-      <c r="C66" s="120" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66" s="91"/>
-      <c r="E66" s="92"/>
-      <c r="F66" s="61" t="s">
+      <c r="G66" s="15"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="171"/>
+      <c r="C67" s="169" t="s">
         <v>102</v>
       </c>
-      <c r="G66" s="15"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="144"/>
-      <c r="C67" s="142" t="s">
-        <v>103</v>
-      </c>
-      <c r="D67" s="132"/>
-      <c r="E67" s="132"/>
+      <c r="D67" s="144"/>
+      <c r="E67" s="144"/>
       <c r="F67" s="54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G67" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="144"/>
-      <c r="C68" s="142"/>
-      <c r="D68" s="132" t="s">
-        <v>45</v>
-      </c>
-      <c r="E68" s="132"/>
+      <c r="B68" s="171"/>
+      <c r="C68" s="169"/>
+      <c r="D68" s="144" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" s="144"/>
       <c r="F68" s="50"/>
       <c r="G68" s="40"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="144"/>
-      <c r="C69" s="142" t="s">
+      <c r="B69" s="171"/>
+      <c r="C69" s="169" t="s">
+        <v>103</v>
+      </c>
+      <c r="D69" s="144"/>
+      <c r="E69" s="144"/>
+      <c r="F69" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G69" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D69" s="132"/>
-      <c r="E69" s="132"/>
-      <c r="F69" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="G69" s="36" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="144"/>
-      <c r="C70" s="142"/>
-      <c r="D70" s="132" t="s">
-        <v>24</v>
-      </c>
-      <c r="E70" s="132"/>
+      <c r="B70" s="171"/>
+      <c r="C70" s="169"/>
+      <c r="D70" s="144" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="144"/>
       <c r="F70" s="50"/>
       <c r="G70" s="40"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="144"/>
+      <c r="B71" s="171"/>
       <c r="C71" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="D71" s="136"/>
-      <c r="E71" s="137"/>
+        <v>93</v>
+      </c>
+      <c r="D71" s="163"/>
+      <c r="E71" s="164"/>
       <c r="F71" s="43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G71" s="3"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="144"/>
-      <c r="C72" s="121"/>
-      <c r="D72" s="131" t="s">
+      <c r="B72" s="171"/>
+      <c r="C72" s="129"/>
+      <c r="D72" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="E72" s="131"/>
+      <c r="E72" s="126"/>
       <c r="F72" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G72" s="3"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="144"/>
-      <c r="C73" s="121"/>
-      <c r="D73" s="132" t="s">
-        <v>27</v>
-      </c>
-      <c r="E73" s="132"/>
+      <c r="B73" s="171"/>
+      <c r="C73" s="129"/>
+      <c r="D73" s="144" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="144"/>
       <c r="F73" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G73" s="3"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="144"/>
-      <c r="C74" s="121"/>
-      <c r="D74" s="132" t="s">
+      <c r="B74" s="171"/>
+      <c r="C74" s="129"/>
+      <c r="D74" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="132"/>
+      <c r="E74" s="144"/>
       <c r="F74" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G74" s="3"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="144"/>
-      <c r="C75" s="135"/>
-      <c r="D75" s="134" t="s">
+      <c r="B75" s="171"/>
+      <c r="C75" s="153"/>
+      <c r="D75" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="E75" s="134"/>
+      <c r="E75" s="137"/>
       <c r="F75" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G75" s="3"/>
     </row>
     <row r="76" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="145"/>
+      <c r="B76" s="172"/>
       <c r="C76" s="7"/>
-      <c r="D76" s="119"/>
-      <c r="E76" s="133"/>
+      <c r="D76" s="161"/>
+      <c r="E76" s="162"/>
       <c r="F76" s="47"/>
       <c r="G76" s="8"/>
     </row>
     <row r="77" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="138" t="s">
+      <c r="B77" s="165" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="168" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="168"/>
+      <c r="E77" s="168"/>
+      <c r="F77" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="G77" s="67"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="166"/>
+      <c r="C78" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="133"/>
+      <c r="E78" s="133"/>
+      <c r="F78" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="G78" s="38"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="166"/>
+      <c r="C79" s="133" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="133"/>
+      <c r="E79" s="133"/>
+      <c r="F79" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="141" t="s">
-        <v>1</v>
-      </c>
-      <c r="D77" s="141"/>
-      <c r="E77" s="141"/>
-      <c r="F77" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="G77" s="67"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="139"/>
-      <c r="C78" s="130" t="s">
-        <v>27</v>
-      </c>
-      <c r="D78" s="130"/>
-      <c r="E78" s="130"/>
-      <c r="F78" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="G78" s="38"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="139"/>
-      <c r="C79" s="130" t="s">
-        <v>26</v>
-      </c>
-      <c r="D79" s="130"/>
-      <c r="E79" s="130"/>
-      <c r="F79" s="49" t="s">
-        <v>87</v>
-      </c>
       <c r="G79" s="38"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="139"/>
-      <c r="C80" s="130" t="s">
+      <c r="B80" s="166"/>
+      <c r="C80" s="133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" s="133"/>
+      <c r="E80" s="133"/>
+      <c r="F80" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="G80" s="38"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="166"/>
+      <c r="C81" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="D80" s="130"/>
-      <c r="E80" s="130"/>
-      <c r="F80" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="G80" s="38"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="139"/>
-      <c r="C81" s="130" t="s">
+      <c r="D81" s="133"/>
+      <c r="E81" s="133"/>
+      <c r="F81" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="G81" s="38"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="166"/>
+      <c r="C82" s="126" t="s">
+        <v>31</v>
+      </c>
+      <c r="D82" s="126"/>
+      <c r="E82" s="126"/>
+      <c r="F82" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="G82" s="40"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="166"/>
+      <c r="C83" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D83" s="144"/>
+      <c r="E83" s="144"/>
+      <c r="F83" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G83" s="36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="166"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="D81" s="130"/>
-      <c r="E81" s="130"/>
-      <c r="F81" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="G81" s="38"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="139"/>
-      <c r="C82" s="131" t="s">
-        <v>32</v>
-      </c>
-      <c r="D82" s="131"/>
-      <c r="E82" s="131"/>
-      <c r="F82" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="G82" s="40"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B83" s="139"/>
-      <c r="C83" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="D83" s="132"/>
-      <c r="E83" s="132"/>
-      <c r="F83" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="G83" s="36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="139"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="130" t="s">
-        <v>31</v>
-      </c>
-      <c r="E84" s="130"/>
+      <c r="E84" s="133"/>
       <c r="F84" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G84" s="38"/>
     </row>
     <row r="85" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="140"/>
+      <c r="B85" s="167"/>
       <c r="C85" s="47"/>
-      <c r="D85" s="119"/>
-      <c r="E85" s="133"/>
+      <c r="D85" s="161"/>
+      <c r="E85" s="162"/>
       <c r="F85" s="47"/>
       <c r="G85" s="48"/>
     </row>
     <row r="86" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="113" t="s">
+      <c r="B86" s="138" t="s">
+        <v>108</v>
+      </c>
+      <c r="C86" s="141" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="142"/>
+      <c r="E86" s="143"/>
+      <c r="F86" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="G86" s="64"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="139"/>
+      <c r="C87" s="131" t="s">
+        <v>58</v>
+      </c>
+      <c r="D87" s="72"/>
+      <c r="E87" s="80"/>
+      <c r="F87" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="139"/>
+      <c r="C88" s="131" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" s="72"/>
+      <c r="E88" s="80"/>
+      <c r="F88" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="139"/>
+      <c r="C89" s="132" t="s">
+        <v>31</v>
+      </c>
+      <c r="D89" s="81"/>
+      <c r="E89" s="82"/>
+      <c r="F89" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="G89" s="15"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="139"/>
+      <c r="C90" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="C86" s="116" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86" s="117"/>
-      <c r="E86" s="124"/>
-      <c r="F86" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="G86" s="64"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="114"/>
-      <c r="C87" s="118" t="s">
-        <v>59</v>
-      </c>
-      <c r="D87" s="73"/>
-      <c r="E87" s="78"/>
-      <c r="F87" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="G87" s="3"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="114"/>
-      <c r="C88" s="118" t="s">
+      <c r="D90" s="155"/>
+      <c r="E90" s="156"/>
+      <c r="F90" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="139"/>
+      <c r="C91" s="152"/>
+      <c r="D91" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="D88" s="73"/>
-      <c r="E88" s="78"/>
-      <c r="F88" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="G88" s="3"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="114"/>
-      <c r="C89" s="120" t="s">
-        <v>32</v>
-      </c>
-      <c r="D89" s="91"/>
-      <c r="E89" s="92"/>
-      <c r="F89" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="G89" s="15"/>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="114"/>
-      <c r="C90" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="D90" s="123"/>
-      <c r="E90" s="129"/>
-      <c r="F90" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="114"/>
-      <c r="C91" s="125"/>
-      <c r="D91" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="E91" s="78"/>
+      <c r="E91" s="80"/>
       <c r="F91" s="49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G91" s="3"/>
     </row>
     <row r="92" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="115"/>
-      <c r="C92" s="126"/>
-      <c r="D92" s="127"/>
-      <c r="E92" s="128"/>
+      <c r="B92" s="140"/>
+      <c r="C92" s="173"/>
+      <c r="D92" s="154"/>
+      <c r="E92" s="174"/>
       <c r="F92" s="51"/>
       <c r="G92" s="8"/>
     </row>
     <row r="93" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="113" t="s">
+      <c r="B93" s="138" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93" s="141" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="142"/>
+      <c r="E93" s="142"/>
+      <c r="F93" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="G93" s="64"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="139"/>
+      <c r="C94" s="131" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" s="72"/>
+      <c r="E94" s="72"/>
+      <c r="F94" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="G94" s="3"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="139"/>
+      <c r="C95" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="C93" s="116" t="s">
-        <v>1</v>
-      </c>
-      <c r="D93" s="117"/>
-      <c r="E93" s="117"/>
-      <c r="F93" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="G93" s="64"/>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="114"/>
-      <c r="C94" s="118" t="s">
-        <v>27</v>
-      </c>
-      <c r="D94" s="73"/>
-      <c r="E94" s="73"/>
-      <c r="F94" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="G94" s="3"/>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="114"/>
-      <c r="C95" s="118" t="s">
-        <v>54</v>
-      </c>
-      <c r="D95" s="73"/>
-      <c r="E95" s="73"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="72"/>
       <c r="F95" s="49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G95" s="3"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="114"/>
-      <c r="C96" s="118" t="s">
-        <v>113</v>
-      </c>
-      <c r="D96" s="73"/>
-      <c r="E96" s="73"/>
+      <c r="B96" s="139"/>
+      <c r="C96" s="131" t="s">
+        <v>112</v>
+      </c>
+      <c r="D96" s="72"/>
+      <c r="E96" s="72"/>
       <c r="F96" s="49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G96" s="3"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="114"/>
-      <c r="C97" s="118" t="s">
-        <v>56</v>
-      </c>
-      <c r="D97" s="73"/>
-      <c r="E97" s="73"/>
+      <c r="B97" s="139"/>
+      <c r="C97" s="131" t="s">
+        <v>55</v>
+      </c>
+      <c r="D97" s="72"/>
+      <c r="E97" s="72"/>
       <c r="F97" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G97" s="3"/>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="114"/>
-      <c r="C98" s="118" t="s">
+      <c r="B98" s="139"/>
+      <c r="C98" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="D98" s="73"/>
-      <c r="E98" s="73"/>
+      <c r="D98" s="72"/>
+      <c r="E98" s="72"/>
       <c r="F98" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G98" s="3"/>
     </row>
     <row r="99" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="115"/>
-      <c r="C99" s="119"/>
-      <c r="D99" s="83"/>
-      <c r="E99" s="83"/>
+      <c r="B99" s="140"/>
+      <c r="C99" s="161"/>
+      <c r="D99" s="75"/>
+      <c r="E99" s="75"/>
       <c r="F99" s="47"/>
       <c r="G99" s="8"/>
     </row>
     <row r="100" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="113" t="s">
+      <c r="B100" s="138" t="s">
+        <v>57</v>
+      </c>
+      <c r="C100" s="141" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" s="142"/>
+      <c r="E100" s="142"/>
+      <c r="F100" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="G100" s="64"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="139"/>
+      <c r="C101" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="C100" s="116" t="s">
-        <v>1</v>
-      </c>
-      <c r="D100" s="117"/>
-      <c r="E100" s="117"/>
-      <c r="F100" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="G100" s="64"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="114"/>
-      <c r="C101" s="118" t="s">
-        <v>59</v>
-      </c>
-      <c r="D101" s="73"/>
-      <c r="E101" s="73"/>
+      <c r="D101" s="72"/>
+      <c r="E101" s="72"/>
       <c r="F101" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G101" s="3"/>
     </row>
     <row r="102" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="115"/>
-      <c r="C102" s="119"/>
-      <c r="D102" s="83"/>
-      <c r="E102" s="83"/>
+      <c r="B102" s="140"/>
+      <c r="C102" s="161"/>
+      <c r="D102" s="75"/>
+      <c r="E102" s="75"/>
       <c r="F102" s="47"/>
       <c r="G102" s="8"/>
     </row>
     <row r="103" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="113" t="s">
+      <c r="B103" s="138" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" s="141" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103" s="142"/>
+      <c r="E103" s="142"/>
+      <c r="F103" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="G103" s="64"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="139"/>
+      <c r="C104" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="C103" s="116" t="s">
-        <v>1</v>
-      </c>
-      <c r="D103" s="117"/>
-      <c r="E103" s="117"/>
-      <c r="F103" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="G103" s="64"/>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="114"/>
-      <c r="C104" s="118" t="s">
-        <v>49</v>
-      </c>
-      <c r="D104" s="73"/>
-      <c r="E104" s="73"/>
+      <c r="D104" s="72"/>
+      <c r="E104" s="72"/>
       <c r="F104" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="G104" s="3"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="139"/>
+      <c r="C105" s="131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="72"/>
+      <c r="E105" s="72"/>
+      <c r="F105" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="G105" s="3"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="139"/>
+      <c r="C106" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="G104" s="3"/>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="114"/>
-      <c r="C105" s="118" t="s">
-        <v>10</v>
-      </c>
-      <c r="D105" s="73"/>
-      <c r="E105" s="73"/>
-      <c r="F105" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="G105" s="3"/>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="114"/>
-      <c r="C106" s="174" t="s">
-        <v>88</v>
-      </c>
-      <c r="D106" s="175"/>
-      <c r="E106" s="176"/>
+      <c r="D106" s="124"/>
+      <c r="E106" s="125"/>
       <c r="F106" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G106" s="24"/>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="114"/>
+      <c r="B107" s="139"/>
       <c r="C107" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D107" s="23"/>
       <c r="E107" s="23"/>
       <c r="F107" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G107" s="24"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B108" s="114"/>
-      <c r="C108" s="118" t="s">
+      <c r="B108" s="139"/>
+      <c r="C108" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="D108" s="73"/>
-      <c r="E108" s="73"/>
+      <c r="D108" s="72"/>
+      <c r="E108" s="72"/>
       <c r="F108" s="49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G108" s="3"/>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B109" s="114"/>
-      <c r="C109" s="120" t="s">
+      <c r="B109" s="139"/>
+      <c r="C109" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="D109" s="91"/>
-      <c r="E109" s="91"/>
+      <c r="D109" s="81"/>
+      <c r="E109" s="81"/>
       <c r="F109" s="68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G109" s="15"/>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B110" s="114"/>
-      <c r="C110" s="169" t="s">
+      <c r="B110" s="139"/>
+      <c r="C110" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="D110" s="175"/>
+      <c r="E110" s="176"/>
+      <c r="F110" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="G110" s="3"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="139"/>
+      <c r="C111" s="49"/>
+      <c r="D111" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="E111" s="122"/>
+      <c r="F111" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="G111" s="24"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="139"/>
+      <c r="C112" s="129"/>
+      <c r="D112" s="131" t="s">
+        <v>26</v>
+      </c>
+      <c r="E112" s="72"/>
+      <c r="F112" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="G112" s="3"/>
+    </row>
+    <row r="113" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="140"/>
+      <c r="C113" s="151"/>
+      <c r="D113" s="161" t="s">
+        <v>115</v>
+      </c>
+      <c r="E113" s="75"/>
+      <c r="F113" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="G113" s="8"/>
+    </row>
+    <row r="114" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="D110" s="170"/>
-      <c r="E110" s="171"/>
-      <c r="F110" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="G110" s="3"/>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B111" s="114"/>
-      <c r="C111" s="49"/>
-      <c r="D111" s="172" t="s">
+      <c r="C114" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="E111" s="173"/>
-      <c r="F111" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="G111" s="24"/>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B112" s="114"/>
-      <c r="C112" s="121"/>
-      <c r="D112" s="118" t="s">
+      <c r="D114" s="142"/>
+      <c r="E114" s="142"/>
+      <c r="F114" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="G114" s="64"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="139"/>
+      <c r="C115" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="E112" s="73"/>
-      <c r="F112" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="G112" s="3"/>
-    </row>
-    <row r="113" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="115"/>
-      <c r="C113" s="122"/>
-      <c r="D113" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="E113" s="83"/>
-      <c r="F113" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="G113" s="8"/>
-    </row>
-    <row r="114" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="113" t="s">
-        <v>115</v>
-      </c>
-      <c r="C114" s="116" t="s">
-        <v>1</v>
-      </c>
-      <c r="D114" s="117"/>
-      <c r="E114" s="117"/>
-      <c r="F114" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="G114" s="64"/>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B115" s="114"/>
-      <c r="C115" s="118" t="s">
-        <v>28</v>
-      </c>
-      <c r="D115" s="73"/>
-      <c r="E115" s="73"/>
+      <c r="D115" s="72"/>
+      <c r="E115" s="72"/>
       <c r="F115" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G115" s="3"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B116" s="114"/>
-      <c r="C116" s="118" t="s">
+      <c r="B116" s="139"/>
+      <c r="C116" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="D116" s="73"/>
-      <c r="E116" s="73"/>
+      <c r="D116" s="72"/>
+      <c r="E116" s="72"/>
       <c r="F116" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G116" s="3"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B117" s="114"/>
-      <c r="C117" s="118" t="s">
+      <c r="B117" s="139"/>
+      <c r="C117" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="D117" s="73"/>
-      <c r="E117" s="73"/>
+      <c r="D117" s="72"/>
+      <c r="E117" s="72"/>
       <c r="F117" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G117" s="3"/>
     </row>
     <row r="118" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="115"/>
-      <c r="C118" s="119"/>
-      <c r="D118" s="83"/>
-      <c r="E118" s="83"/>
+      <c r="B118" s="140"/>
+      <c r="C118" s="161"/>
+      <c r="D118" s="75"/>
+      <c r="E118" s="75"/>
       <c r="F118" s="47"/>
       <c r="G118" s="8"/>
     </row>
     <row r="119" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C2:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B35:B59"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B4:B34"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C49:C59"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="B103:B113"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="B93:B99"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="B86:B92"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="B77:B85"/>
@@ -4054,50 +4041,59 @@
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="C80:E80"/>
     <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="B86:B92"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="B93:B99"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="B103:B113"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="C49:C59"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="C2:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="B35:B59"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B4:B34"/>
+    <mergeCell ref="C46:C47"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" location="Collections!E4" display="Users"/>

--- a/WIP/Users/VanTTC/BSN_MongoDB_Database_Design_v1.1.xlsx
+++ b/WIP/Users/VanTTC/BSN_MongoDB_Database_Design_v1.1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="138">
   <si>
     <t>Users Collection</t>
   </si>
@@ -1020,7 +1020,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1081,6 +1081,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1093,6 +1098,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -1100,10 +1108,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1124,6 +1129,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1154,24 +1177,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1193,21 +1198,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1232,15 +1249,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1252,12 +1283,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1269,14 +1294,32 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1290,61 +1333,31 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1648,280 +1661,280 @@
   <sheetData>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="87"/>
-      <c r="E4" s="85" t="s">
+      <c r="B4" s="95"/>
+      <c r="C4" s="96"/>
+      <c r="E4" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87"/>
-      <c r="J4" s="85" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="96"/>
+      <c r="J4" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="87"/>
-      <c r="O4" s="85" t="s">
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="96"/>
+      <c r="O4" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="87"/>
-      <c r="S4" s="92" t="s">
+      <c r="P4" s="95"/>
+      <c r="Q4" s="96"/>
+      <c r="S4" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="T4" s="86"/>
-      <c r="U4" s="87"/>
-      <c r="W4" s="92" t="s">
+      <c r="T4" s="95"/>
+      <c r="U4" s="96"/>
+      <c r="W4" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="87"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="96"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="90"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="90"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="90"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="89"/>
-      <c r="U5" s="90"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="89"/>
-      <c r="Y5" s="90"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="99"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="99"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="99"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="99"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="98"/>
+      <c r="U5" s="99"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="98"/>
+      <c r="Y5" s="99"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
-      <c r="E6" s="56" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="E6" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
-      <c r="J6" s="56" t="s">
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+      <c r="J6" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="58"/>
-      <c r="O6" s="56" t="s">
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="61"/>
+      <c r="O6" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="58"/>
-      <c r="S6" s="56" t="s">
+      <c r="P6" s="60"/>
+      <c r="Q6" s="61"/>
+      <c r="S6" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="T6" s="57"/>
-      <c r="U6" s="58"/>
-      <c r="W6" s="56" t="s">
+      <c r="T6" s="60"/>
+      <c r="U6" s="61"/>
+      <c r="W6" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="58"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="61"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
-      <c r="E7" s="56" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="E7" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="58"/>
-      <c r="J7" s="56" t="s">
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+      <c r="J7" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="58"/>
-      <c r="O7" s="56" t="s">
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="61"/>
+      <c r="O7" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="58"/>
-      <c r="S7" s="56" t="s">
+      <c r="P7" s="60"/>
+      <c r="Q7" s="61"/>
+      <c r="S7" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="T7" s="57"/>
-      <c r="U7" s="58"/>
-      <c r="W7" s="56" t="s">
+      <c r="T7" s="60"/>
+      <c r="U7" s="61"/>
+      <c r="W7" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="58"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="61"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="58"/>
-      <c r="E8" s="56" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="E8" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="58"/>
-      <c r="J8" s="56" t="s">
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="J8" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="58"/>
-      <c r="O8" s="56" t="s">
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="61"/>
+      <c r="O8" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="58"/>
-      <c r="S8" s="56" t="s">
+      <c r="P8" s="60"/>
+      <c r="Q8" s="61"/>
+      <c r="S8" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="T8" s="57"/>
-      <c r="U8" s="58"/>
-      <c r="W8" s="56" t="s">
+      <c r="T8" s="60"/>
+      <c r="U8" s="61"/>
+      <c r="W8" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="58"/>
+      <c r="X8" s="60"/>
+      <c r="Y8" s="61"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="E9" s="56" t="s">
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="E9" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="58"/>
-      <c r="J9" s="56" t="s">
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="61"/>
+      <c r="J9" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="58"/>
-      <c r="O9" s="56" t="s">
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="61"/>
+      <c r="O9" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="58"/>
-      <c r="S9" s="83" t="s">
+      <c r="P9" s="60"/>
+      <c r="Q9" s="61"/>
+      <c r="S9" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="T9" s="75"/>
-      <c r="U9" s="84"/>
-      <c r="W9" s="56" t="s">
+      <c r="T9" s="69"/>
+      <c r="U9" s="87"/>
+      <c r="W9" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="58"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="61"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="E10" s="56" t="s">
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="E10" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="58"/>
-      <c r="J10" s="56" t="s">
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61"/>
+      <c r="J10" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="58"/>
-      <c r="O10" s="56" t="s">
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
+      <c r="O10" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="58"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="91"/>
-      <c r="W10" s="83" t="s">
+      <c r="P10" s="60"/>
+      <c r="Q10" s="61"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="100"/>
+      <c r="W10" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="84"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="87"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="72"/>
-      <c r="E11" s="56" t="s">
+      <c r="B11" s="66"/>
+      <c r="C11" s="78"/>
+      <c r="E11" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="58"/>
-      <c r="J11" s="83" t="s">
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="61"/>
+      <c r="J11" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="84"/>
-      <c r="O11" s="56" t="s">
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="87"/>
+      <c r="O11" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="58"/>
-      <c r="S11" s="73" t="s">
+      <c r="P11" s="60"/>
+      <c r="Q11" s="61"/>
+      <c r="S11" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="T11" s="55"/>
+      <c r="T11" s="58"/>
       <c r="U11" s="3"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="91"/>
+      <c r="W11" s="71"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="100"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
-      <c r="E12" s="56" t="s">
+      <c r="A12" s="59"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="E12" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="58"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="91"/>
-      <c r="O12" s="83" t="s">
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="100"/>
+      <c r="O12" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="84"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="87"/>
       <c r="S12" s="9"/>
       <c r="T12" s="12" t="s">
         <v>31</v>
@@ -1934,29 +1947,29 @@
       <c r="Y12" s="3"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="70"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="3"/>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="58"/>
-      <c r="J13" s="73" t="s">
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="61"/>
+      <c r="J13" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="74"/>
-      <c r="L13" s="55"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="58"/>
       <c r="M13" s="3"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="91"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="68"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="100"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="74"/>
       <c r="W13" s="9"/>
       <c r="X13" s="12" t="s">
         <v>27</v>
@@ -1969,42 +1982,42 @@
         <v>31</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="E14" s="83" t="s">
+      <c r="E14" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="84"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="87"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="75" t="s">
+      <c r="K14" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="76"/>
+      <c r="L14" s="70"/>
       <c r="M14" s="3"/>
-      <c r="O14" s="73" t="s">
+      <c r="O14" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="P14" s="55"/>
+      <c r="P14" s="58"/>
       <c r="Q14" s="3"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="68"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="74"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="66"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="68"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="79"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="58"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="74"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="82"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="61"/>
       <c r="O15" s="9"/>
       <c r="P15" s="12" t="s">
         <v>45</v>
@@ -2012,17 +2025,17 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="60"/>
-      <c r="G16" s="61"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="64"/>
       <c r="H16" s="3"/>
-      <c r="J16" s="59" t="s">
+      <c r="J16" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="60"/>
-      <c r="L16" s="61"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="64"/>
       <c r="M16" s="3"/>
       <c r="O16" s="1"/>
       <c r="P16" s="2"/>
@@ -2030,35 +2043,35 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E17" s="1"/>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="62"/>
+      <c r="G17" s="65"/>
       <c r="H17" s="3"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="57" t="s">
+      <c r="K17" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="62"/>
+      <c r="L17" s="65"/>
       <c r="M17" s="3"/>
-      <c r="O17" s="73" t="s">
+      <c r="O17" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="P17" s="55"/>
+      <c r="P17" s="58"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="1"/>
-      <c r="F18" s="57" t="s">
+      <c r="F18" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="62"/>
+      <c r="G18" s="65"/>
       <c r="H18" s="3"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="75" t="s">
+      <c r="K18" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="76"/>
+      <c r="L18" s="70"/>
       <c r="M18" s="3"/>
       <c r="O18" s="9"/>
       <c r="P18" s="12" t="s">
@@ -2067,234 +2080,234 @@
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="100"/>
-      <c r="C19" s="97"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="62"/>
+      <c r="G19" s="65"/>
       <c r="H19" s="3"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="58"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="58"/>
-      <c r="S19" s="96" t="s">
+      <c r="J19" s="59"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="61"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="61"/>
+      <c r="S19" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="T19" s="97"/>
-      <c r="W19" s="92" t="s">
+      <c r="T19" s="90"/>
+      <c r="W19" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="X19" s="87"/>
+      <c r="X19" s="96"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="98"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="99"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="93"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="62"/>
+      <c r="G20" s="65"/>
       <c r="H20" s="3"/>
-      <c r="J20" s="59" t="s">
+      <c r="J20" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="60"/>
-      <c r="L20" s="61"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="64"/>
       <c r="M20" s="3"/>
-      <c r="O20" s="59" t="s">
+      <c r="O20" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="P20" s="61"/>
+      <c r="P20" s="64"/>
       <c r="Q20" s="3"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="99"/>
-      <c r="W20" s="88"/>
-      <c r="X20" s="90"/>
+      <c r="S20" s="91"/>
+      <c r="T20" s="93"/>
+      <c r="W20" s="97"/>
+      <c r="X20" s="99"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="62"/>
+      <c r="G21" s="65"/>
       <c r="H21" s="3"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="57" t="s">
+      <c r="K21" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="L21" s="62"/>
+      <c r="L21" s="65"/>
       <c r="M21" s="3"/>
       <c r="O21" s="1"/>
       <c r="P21" s="11" t="s">
         <v>1</v>
       </c>
       <c r="Q21" s="3"/>
-      <c r="S21" s="56" t="s">
+      <c r="S21" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="T21" s="58"/>
-      <c r="W21" s="56" t="s">
+      <c r="T21" s="61"/>
+      <c r="W21" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="X21" s="58"/>
+      <c r="X21" s="61"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="58"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="75" t="s">
+      <c r="F22" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="76"/>
+      <c r="G22" s="70"/>
       <c r="H22" s="3"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="75" t="s">
+      <c r="K22" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="L22" s="76"/>
+      <c r="L22" s="70"/>
       <c r="M22" s="3"/>
       <c r="O22" s="1"/>
       <c r="P22" s="11" t="s">
         <v>27</v>
       </c>
       <c r="Q22" s="3"/>
-      <c r="S22" s="56" t="s">
+      <c r="S22" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="T22" s="58"/>
-      <c r="W22" s="56" t="s">
+      <c r="T22" s="61"/>
+      <c r="W22" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="X22" s="58"/>
+      <c r="X22" s="61"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="68"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="74"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="58"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="58"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="61"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="61"/>
       <c r="O23" s="1"/>
       <c r="P23" s="11" t="s">
         <v>17</v>
       </c>
       <c r="Q23" s="3"/>
-      <c r="S23" s="56" t="s">
+      <c r="S23" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="T23" s="58"/>
-      <c r="W23" s="56" t="s">
+      <c r="T23" s="61"/>
+      <c r="W23" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="X23" s="58"/>
+      <c r="X23" s="61"/>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="64"/>
       <c r="H24" s="3"/>
-      <c r="J24" s="59" t="s">
+      <c r="J24" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="K24" s="60"/>
-      <c r="L24" s="61"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="64"/>
       <c r="M24" s="3"/>
       <c r="O24" s="9"/>
       <c r="P24" s="12" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="3"/>
-      <c r="S24" s="56" t="s">
+      <c r="S24" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="T24" s="58"/>
-      <c r="W24" s="56" t="s">
+      <c r="T24" s="61"/>
+      <c r="W24" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="X24" s="58"/>
+      <c r="X24" s="61"/>
     </row>
     <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E25" s="1"/>
-      <c r="F25" s="57" t="s">
+      <c r="F25" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="62"/>
+      <c r="G25" s="65"/>
       <c r="H25" s="3"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="57" t="s">
+      <c r="K25" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="L25" s="62"/>
+      <c r="L25" s="65"/>
       <c r="M25" s="3"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="68"/>
-      <c r="S25" s="56" t="s">
+      <c r="O25" s="72"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="74"/>
+      <c r="S25" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="T25" s="58"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="68"/>
+      <c r="T25" s="61"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="74"/>
     </row>
     <row r="26" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E26" s="1"/>
-      <c r="F26" s="75" t="s">
+      <c r="F26" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="76"/>
+      <c r="G26" s="70"/>
       <c r="H26" s="3"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="57" t="s">
+      <c r="K26" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="62"/>
+      <c r="L26" s="65"/>
       <c r="M26" s="3"/>
-      <c r="S26" s="56" t="s">
+      <c r="S26" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="T26" s="58"/>
+      <c r="T26" s="61"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E27" s="1"/>
-      <c r="F27" s="65" t="s">
+      <c r="F27" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="61"/>
+      <c r="G27" s="64"/>
       <c r="H27" s="3"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="57" t="s">
+      <c r="K27" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="L27" s="62"/>
+      <c r="L27" s="65"/>
       <c r="M27" s="3"/>
-      <c r="S27" s="56" t="s">
+      <c r="S27" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="T27" s="58"/>
+      <c r="T27" s="61"/>
     </row>
     <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="1"/>
@@ -2304,13 +2317,13 @@
       </c>
       <c r="H28" s="3"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="57" t="s">
+      <c r="K28" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="L28" s="62"/>
+      <c r="L28" s="65"/>
       <c r="M28" s="3"/>
-      <c r="S28" s="66"/>
-      <c r="T28" s="68"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="74"/>
     </row>
     <row r="29" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E29" s="1"/>
@@ -2320,10 +2333,10 @@
       </c>
       <c r="H29" s="3"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="63" t="s">
+      <c r="K29" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="64"/>
+      <c r="L29" s="67"/>
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
@@ -2334,10 +2347,10 @@
       </c>
       <c r="H30" s="3"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="65" t="s">
+      <c r="K30" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="L30" s="61"/>
+      <c r="L30" s="64"/>
       <c r="M30" s="3"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -2355,10 +2368,10 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E32" s="56"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="58"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="61"/>
       <c r="J32" s="1"/>
       <c r="K32" s="16"/>
       <c r="L32" s="12" t="s">
@@ -2367,11 +2380,11 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E33" s="93" t="s">
+      <c r="E33" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="94"/>
-      <c r="G33" s="95"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="104"/>
       <c r="H33" s="3"/>
       <c r="J33" s="1"/>
       <c r="K33" s="2"/>
@@ -2380,23 +2393,23 @@
     </row>
     <row r="34" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E34" s="9"/>
-      <c r="F34" s="75" t="s">
+      <c r="F34" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="76"/>
+      <c r="G34" s="70"/>
       <c r="H34" s="3"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="54" t="s">
+      <c r="K34" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="L34" s="55"/>
+      <c r="L34" s="58"/>
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E35" s="56"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="58"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="61"/>
       <c r="J35" s="9"/>
       <c r="K35" s="16"/>
       <c r="L35" s="12" t="s">
@@ -2405,11 +2418,11 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="80" t="s">
+      <c r="E36" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="81"/>
-      <c r="G36" s="82"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="85"/>
       <c r="H36" s="3"/>
       <c r="J36" s="4"/>
       <c r="K36" s="5"/>
@@ -2418,39 +2431,39 @@
     </row>
     <row r="37" spans="5:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E37" s="9"/>
-      <c r="F37" s="75" t="s">
+      <c r="F37" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G37" s="76"/>
+      <c r="G37" s="70"/>
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E38" s="56"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="58"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="61"/>
     </row>
     <row r="39" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E39" s="73" t="s">
+      <c r="E39" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="74"/>
-      <c r="G39" s="55"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="58"/>
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E40" s="9"/>
-      <c r="F40" s="75" t="s">
+      <c r="F40" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="76"/>
+      <c r="G40" s="70"/>
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="66"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="68"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="74"/>
     </row>
     <row r="42" spans="5:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -2591,10 +2604,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G120"/>
+  <dimension ref="B1:G121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F111" sqref="F111"/>
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2608,43 +2621,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="166" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="151" t="s">
+      <c r="D2" s="89"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="143" t="s">
+      <c r="G2" s="154" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="150"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="145"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="156"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="142" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
       <c r="F4" s="23" t="s">
         <v>63</v>
       </c>
@@ -2653,120 +2666,120 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="147"/>
-      <c r="C5" s="117" t="s">
+      <c r="B5" s="143"/>
+      <c r="C5" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
       <c r="F5" s="25" t="s">
         <v>66</v>
       </c>
       <c r="G5" s="26"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="147"/>
-      <c r="C6" s="117" t="s">
+      <c r="B6" s="143"/>
+      <c r="C6" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
       <c r="F6" s="25" t="s">
         <v>66</v>
       </c>
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="147"/>
-      <c r="C7" s="117" t="s">
+      <c r="B7" s="143"/>
+      <c r="C7" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
       <c r="F7" s="25" t="s">
         <v>66</v>
       </c>
       <c r="G7" s="26"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="147"/>
-      <c r="C8" s="117" t="s">
+      <c r="B8" s="143"/>
+      <c r="C8" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
       <c r="F8" s="25" t="s">
         <v>66</v>
       </c>
       <c r="G8" s="26"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="147"/>
-      <c r="C9" s="117" t="s">
+      <c r="B9" s="143"/>
+      <c r="C9" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
       <c r="F9" s="25" t="s">
         <v>68</v>
       </c>
       <c r="G9" s="26"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="147"/>
-      <c r="C10" s="117" t="s">
+      <c r="B10" s="143"/>
+      <c r="C10" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="25" t="s">
         <v>85</v>
       </c>
       <c r="G10" s="26"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="147"/>
-      <c r="C11" s="117" t="s">
+      <c r="B11" s="143"/>
+      <c r="C11" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="25" t="s">
         <v>85</v>
       </c>
       <c r="G11" s="26"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="147"/>
+      <c r="B12" s="143"/>
       <c r="C12" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="153"/>
       <c r="F12" s="32" t="s">
         <v>70</v>
       </c>
       <c r="G12" s="24"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="147"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="117" t="s">
+      <c r="B13" s="143"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="117"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="25" t="s">
         <v>63</v>
       </c>
       <c r="G13" s="26"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="147"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="117" t="s">
+      <c r="B14" s="143"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="117"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="25" t="s">
         <v>66</v>
       </c>
@@ -2775,12 +2788,12 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="147"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="117" t="s">
+      <c r="B15" s="143"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="117"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="25" t="s">
         <v>63</v>
       </c>
@@ -2789,31 +2802,31 @@
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="147"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="117" t="s">
+      <c r="B16" s="143"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="117"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="25" t="s">
         <v>66</v>
       </c>
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="147"/>
-      <c r="C17" s="141"/>
-      <c r="D17" s="118" t="s">
+      <c r="B17" s="143"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="118"/>
+      <c r="E17" s="123"/>
       <c r="F17" s="27" t="s">
         <v>66</v>
       </c>
       <c r="G17" s="28"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="147"/>
+      <c r="B18" s="143"/>
       <c r="C18" s="33" t="s">
         <v>73</v>
       </c>
@@ -2825,24 +2838,24 @@
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="147"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="107" t="s">
+      <c r="B19" s="143"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="62"/>
+      <c r="E19" s="65"/>
       <c r="F19" s="25" t="s">
         <v>63</v>
       </c>
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="147"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="109" t="s">
+      <c r="B20" s="143"/>
+      <c r="C20" s="172"/>
+      <c r="D20" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="76"/>
+      <c r="E20" s="70"/>
       <c r="F20" s="25" t="s">
         <v>63</v>
       </c>
@@ -2851,8 +2864,8 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="147"/>
-      <c r="C21" s="140"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="172"/>
       <c r="D21" s="32" t="s">
         <v>76</v>
       </c>
@@ -2863,9 +2876,9 @@
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="147"/>
-      <c r="C22" s="140"/>
-      <c r="D22" s="110"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="113"/>
       <c r="E22" s="25" t="s">
         <v>1</v>
       </c>
@@ -2875,9 +2888,9 @@
       <c r="G22" s="26"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="147"/>
-      <c r="C23" s="140"/>
-      <c r="D23" s="110"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="172"/>
+      <c r="D23" s="113"/>
       <c r="E23" s="25" t="s">
         <v>17</v>
       </c>
@@ -2887,9 +2900,9 @@
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="147"/>
-      <c r="C24" s="140"/>
-      <c r="D24" s="110"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="172"/>
+      <c r="D24" s="113"/>
       <c r="E24" s="25" t="s">
         <v>56</v>
       </c>
@@ -2899,9 +2912,9 @@
       <c r="G24" s="26"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="147"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="133"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="145"/>
       <c r="E25" s="27" t="s">
         <v>13</v>
       </c>
@@ -2911,12 +2924,12 @@
       <c r="G25" s="28"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="147"/>
-      <c r="C26" s="134" t="s">
+      <c r="B26" s="143"/>
+      <c r="C26" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
       <c r="F26" s="37" t="s">
         <v>67</v>
       </c>
@@ -2925,24 +2938,24 @@
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="147"/>
-      <c r="C27" s="135"/>
-      <c r="D27" s="109" t="s">
+      <c r="B27" s="143"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="76"/>
+      <c r="E27" s="70"/>
       <c r="F27" s="27" t="s">
         <v>63</v>
       </c>
       <c r="G27" s="28"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="147"/>
-      <c r="C28" s="134" t="s">
+      <c r="B28" s="143"/>
+      <c r="C28" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
       <c r="F28" s="37" t="s">
         <v>67</v>
       </c>
@@ -2951,24 +2964,24 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="147"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="119" t="s">
+      <c r="B29" s="143"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="119"/>
+      <c r="E29" s="126"/>
       <c r="F29" s="37" t="s">
         <v>63</v>
       </c>
       <c r="G29" s="28"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="147"/>
-      <c r="C30" s="134" t="s">
+      <c r="B30" s="143"/>
+      <c r="C30" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
       <c r="F30" s="37" t="s">
         <v>67</v>
       </c>
@@ -2977,34 +2990,34 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="147"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="107" t="s">
+      <c r="B31" s="143"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="62"/>
+      <c r="E31" s="65"/>
       <c r="F31" s="25" t="s">
         <v>63</v>
       </c>
       <c r="G31" s="26"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="148"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="120"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="125"/>
       <c r="F32" s="34"/>
       <c r="G32" s="35"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="102" t="s">
+      <c r="B33" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="105" t="s">
+      <c r="C33" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="106"/>
-      <c r="E33" s="114"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="129"/>
       <c r="F33" s="43" t="s">
         <v>63</v>
       </c>
@@ -3013,48 +3026,48 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="103"/>
-      <c r="C34" s="107" t="s">
+      <c r="B34" s="106"/>
+      <c r="C34" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="62"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="65"/>
       <c r="F34" s="44" t="s">
         <v>85</v>
       </c>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="103"/>
-      <c r="C35" s="107" t="s">
+      <c r="B35" s="106"/>
+      <c r="C35" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="62"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="65"/>
       <c r="F35" s="44" t="s">
         <v>85</v>
       </c>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="103"/>
-      <c r="C36" s="107" t="s">
+      <c r="B36" s="106"/>
+      <c r="C36" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="62"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="65"/>
       <c r="F36" s="44" t="s">
         <v>110</v>
       </c>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="103"/>
-      <c r="C37" s="134" t="s">
+      <c r="B37" s="106"/>
+      <c r="C37" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="112"/>
-      <c r="E37" s="116"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="148"/>
       <c r="F37" s="46" t="s">
         <v>67</v>
       </c>
@@ -3063,19 +3076,19 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="103"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="119" t="s">
+      <c r="B38" s="106"/>
+      <c r="C38" s="141"/>
+      <c r="D38" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="119"/>
+      <c r="E38" s="126"/>
       <c r="F38" s="46" t="s">
         <v>63</v>
       </c>
       <c r="G38" s="14"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="103"/>
+      <c r="B39" s="106"/>
       <c r="C39" s="29" t="s">
         <v>88</v>
       </c>
@@ -3089,8 +3102,8 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="103"/>
-      <c r="C40" s="136"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="149"/>
       <c r="D40" s="2" t="s">
         <v>38</v>
       </c>
@@ -3101,8 +3114,8 @@
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="103"/>
-      <c r="C41" s="137"/>
+      <c r="B41" s="106"/>
+      <c r="C41" s="150"/>
       <c r="D41" s="10" t="s">
         <v>111</v>
       </c>
@@ -3113,7 +3126,7 @@
       <c r="G41" s="14"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="103"/>
+      <c r="B42" s="106"/>
       <c r="C42" s="49" t="s">
         <v>90</v>
       </c>
@@ -3127,8 +3140,8 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="103"/>
-      <c r="C43" s="110"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="113"/>
       <c r="D43" s="15" t="s">
         <v>1</v>
       </c>
@@ -3139,8 +3152,8 @@
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="103"/>
-      <c r="C44" s="110"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="113"/>
       <c r="D44" s="15" t="s">
         <v>38</v>
       </c>
@@ -3151,8 +3164,8 @@
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="103"/>
-      <c r="C45" s="110"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="113"/>
       <c r="D45" s="15" t="s">
         <v>56</v>
       </c>
@@ -3163,8 +3176,8 @@
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="103"/>
-      <c r="C46" s="110"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="113"/>
       <c r="D46" s="15" t="s">
         <v>112</v>
       </c>
@@ -3175,8 +3188,8 @@
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="103"/>
-      <c r="C47" s="110"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="113"/>
       <c r="D47" s="16" t="s">
         <v>113</v>
       </c>
@@ -3187,8 +3200,8 @@
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="103"/>
-      <c r="C48" s="110"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="113"/>
       <c r="D48" s="30" t="s">
         <v>88</v>
       </c>
@@ -3201,9 +3214,9 @@
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="103"/>
-      <c r="C49" s="110"/>
-      <c r="D49" s="133"/>
+      <c r="B49" s="106"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="145"/>
       <c r="E49" s="25" t="s">
         <v>1</v>
       </c>
@@ -3213,9 +3226,9 @@
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="103"/>
-      <c r="C50" s="110"/>
-      <c r="D50" s="115"/>
+      <c r="B50" s="106"/>
+      <c r="C50" s="113"/>
+      <c r="D50" s="146"/>
       <c r="E50" s="27" t="s">
         <v>111</v>
       </c>
@@ -3225,86 +3238,86 @@
       <c r="G50" s="14"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="130" t="s">
+      <c r="B51" s="137" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="105" t="s">
+      <c r="C51" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="D51" s="106"/>
-      <c r="E51" s="114"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="129"/>
       <c r="F51" s="43" t="s">
         <v>63</v>
       </c>
       <c r="G51" s="48"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="131"/>
-      <c r="C52" s="107" t="s">
+      <c r="B52" s="138"/>
+      <c r="C52" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="57"/>
-      <c r="E52" s="62"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="65"/>
       <c r="F52" s="44" t="s">
         <v>85</v>
       </c>
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="131"/>
-      <c r="C53" s="107" t="s">
+      <c r="B53" s="138"/>
+      <c r="C53" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="D53" s="57"/>
-      <c r="E53" s="62"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="65"/>
       <c r="F53" s="44" t="s">
         <v>85</v>
       </c>
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="131"/>
-      <c r="C54" s="107" t="s">
+      <c r="B54" s="138"/>
+      <c r="C54" s="110" t="s">
         <v>115</v>
       </c>
-      <c r="D54" s="57"/>
-      <c r="E54" s="62"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="65"/>
       <c r="F54" s="44" t="s">
         <v>110</v>
       </c>
       <c r="G54" s="3"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="131"/>
-      <c r="C55" s="107" t="s">
+      <c r="B55" s="138"/>
+      <c r="C55" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="57"/>
-      <c r="E55" s="62"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="65"/>
       <c r="F55" s="44" t="s">
         <v>85</v>
       </c>
       <c r="G55" s="3"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="131"/>
-      <c r="C56" s="153" t="s">
+      <c r="B56" s="138"/>
+      <c r="C56" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="154"/>
-      <c r="E56" s="155"/>
+      <c r="D56" s="119"/>
+      <c r="E56" s="120"/>
       <c r="F56" s="44" t="s">
         <v>85</v>
       </c>
       <c r="G56" s="22"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="131"/>
-      <c r="C57" s="153" t="s">
+      <c r="B57" s="138"/>
+      <c r="C57" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="154"/>
-      <c r="E57" s="155"/>
+      <c r="D57" s="119"/>
+      <c r="E57" s="120"/>
       <c r="F57" s="44" t="s">
         <v>68</v>
       </c>
@@ -3313,12 +3326,12 @@
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="131"/>
-      <c r="C58" s="107" t="s">
+      <c r="B58" s="138"/>
+      <c r="C58" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="57"/>
-      <c r="E58" s="62"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="65"/>
       <c r="F58" s="44" t="s">
         <v>68</v>
       </c>
@@ -3327,12 +3340,12 @@
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="131"/>
-      <c r="C59" s="109" t="s">
+      <c r="B59" s="138"/>
+      <c r="C59" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="D59" s="75"/>
-      <c r="E59" s="76"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="70"/>
       <c r="F59" s="45" t="s">
         <v>96</v>
       </c>
@@ -3341,12 +3354,12 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="131"/>
-      <c r="C60" s="129" t="s">
+      <c r="B60" s="138"/>
+      <c r="C60" s="136" t="s">
         <v>97</v>
       </c>
-      <c r="D60" s="119"/>
-      <c r="E60" s="119"/>
+      <c r="D60" s="126"/>
+      <c r="E60" s="126"/>
       <c r="F60" s="39" t="s">
         <v>67</v>
       </c>
@@ -3355,44 +3368,44 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="131"/>
-      <c r="C61" s="129"/>
-      <c r="D61" s="119" t="s">
+      <c r="B61" s="138"/>
+      <c r="C61" s="136"/>
+      <c r="D61" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="E61" s="119"/>
+      <c r="E61" s="126"/>
       <c r="F61" s="37"/>
       <c r="G61" s="28"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="131"/>
-      <c r="C62" s="134" t="s">
+      <c r="B62" s="138"/>
+      <c r="C62" s="140" t="s">
         <v>121</v>
       </c>
-      <c r="D62" s="156"/>
-      <c r="E62" s="157"/>
+      <c r="D62" s="170"/>
+      <c r="E62" s="171"/>
       <c r="F62" s="37" t="s">
         <v>67</v>
       </c>
       <c r="G62" s="26"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="131"/>
-      <c r="C63" s="135"/>
-      <c r="D63" s="158" t="s">
+      <c r="B63" s="138"/>
+      <c r="C63" s="141"/>
+      <c r="D63" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="E63" s="159"/>
+      <c r="E63" s="122"/>
       <c r="F63" s="37"/>
       <c r="G63" s="26"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="131"/>
-      <c r="C64" s="129" t="s">
+      <c r="B64" s="138"/>
+      <c r="C64" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="D64" s="119"/>
-      <c r="E64" s="119"/>
+      <c r="D64" s="126"/>
+      <c r="E64" s="126"/>
       <c r="F64" s="37" t="s">
         <v>67</v>
       </c>
@@ -3401,164 +3414,164 @@
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="131"/>
-      <c r="C65" s="129"/>
-      <c r="D65" s="119" t="s">
+      <c r="B65" s="138"/>
+      <c r="C65" s="136"/>
+      <c r="D65" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="119"/>
+      <c r="E65" s="126"/>
       <c r="F65" s="37"/>
       <c r="G65" s="28"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="131"/>
+      <c r="B66" s="138"/>
       <c r="C66" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D66" s="123"/>
-      <c r="E66" s="124"/>
+      <c r="D66" s="130"/>
+      <c r="E66" s="131"/>
       <c r="F66" s="30" t="s">
         <v>70</v>
       </c>
       <c r="G66" s="3"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="131"/>
-      <c r="C67" s="110"/>
-      <c r="D67" s="118" t="s">
+      <c r="B67" s="138"/>
+      <c r="C67" s="113"/>
+      <c r="D67" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="E67" s="118"/>
+      <c r="E67" s="123"/>
       <c r="F67" s="27" t="s">
         <v>63</v>
       </c>
       <c r="G67" s="3"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="131"/>
-      <c r="C68" s="110"/>
-      <c r="D68" s="119" t="s">
+      <c r="B68" s="138"/>
+      <c r="C68" s="113"/>
+      <c r="D68" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="E68" s="119"/>
+      <c r="E68" s="126"/>
       <c r="F68" s="37" t="s">
         <v>63</v>
       </c>
       <c r="G68" s="3"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="131"/>
-      <c r="C69" s="110"/>
-      <c r="D69" s="119" t="s">
+      <c r="B69" s="138"/>
+      <c r="C69" s="113"/>
+      <c r="D69" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="E69" s="119"/>
+      <c r="E69" s="126"/>
       <c r="F69" s="37" t="s">
         <v>85</v>
       </c>
       <c r="G69" s="3"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="131"/>
-      <c r="C70" s="122"/>
-      <c r="D70" s="121" t="s">
+      <c r="B70" s="138"/>
+      <c r="C70" s="128"/>
+      <c r="D70" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="121"/>
+      <c r="E70" s="127"/>
       <c r="F70" s="23" t="s">
         <v>85</v>
       </c>
       <c r="G70" s="3"/>
     </row>
     <row r="71" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="132"/>
+      <c r="B71" s="139"/>
       <c r="C71" s="7"/>
-      <c r="D71" s="108"/>
-      <c r="E71" s="120"/>
+      <c r="D71" s="111"/>
+      <c r="E71" s="125"/>
       <c r="F71" s="34"/>
       <c r="G71" s="8"/>
     </row>
     <row r="72" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="125" t="s">
+      <c r="B72" s="132" t="s">
         <v>84</v>
       </c>
-      <c r="C72" s="128" t="s">
+      <c r="C72" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="D72" s="128"/>
-      <c r="E72" s="128"/>
+      <c r="D72" s="135"/>
+      <c r="E72" s="135"/>
       <c r="F72" s="50" t="s">
         <v>63</v>
       </c>
       <c r="G72" s="51"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="126"/>
-      <c r="C73" s="117" t="s">
+      <c r="B73" s="133"/>
+      <c r="C73" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="D73" s="117"/>
-      <c r="E73" s="117"/>
+      <c r="D73" s="124"/>
+      <c r="E73" s="124"/>
       <c r="F73" s="36" t="s">
         <v>63</v>
       </c>
       <c r="G73" s="26"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="126"/>
-      <c r="C74" s="117" t="s">
+      <c r="B74" s="133"/>
+      <c r="C74" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="117"/>
-      <c r="E74" s="117"/>
+      <c r="D74" s="124"/>
+      <c r="E74" s="124"/>
       <c r="F74" s="36" t="s">
         <v>85</v>
       </c>
       <c r="G74" s="26"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="126"/>
-      <c r="C75" s="117" t="s">
+      <c r="B75" s="133"/>
+      <c r="C75" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="D75" s="117"/>
-      <c r="E75" s="117"/>
+      <c r="D75" s="124"/>
+      <c r="E75" s="124"/>
       <c r="F75" s="36" t="s">
         <v>85</v>
       </c>
       <c r="G75" s="26"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="126"/>
-      <c r="C76" s="117" t="s">
+      <c r="B76" s="133"/>
+      <c r="C76" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="D76" s="117"/>
-      <c r="E76" s="117"/>
+      <c r="D76" s="124"/>
+      <c r="E76" s="124"/>
       <c r="F76" s="36" t="s">
         <v>85</v>
       </c>
       <c r="G76" s="26"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="126"/>
-      <c r="C77" s="118" t="s">
+      <c r="B77" s="133"/>
+      <c r="C77" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="D77" s="118"/>
-      <c r="E77" s="118"/>
+      <c r="D77" s="123"/>
+      <c r="E77" s="123"/>
       <c r="F77" s="27" t="s">
         <v>96</v>
       </c>
       <c r="G77" s="28"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="126"/>
-      <c r="C78" s="37" t="s">
+      <c r="B78" s="133"/>
+      <c r="C78" s="174" t="s">
         <v>101</v>
       </c>
-      <c r="D78" s="119"/>
-      <c r="E78" s="119"/>
+      <c r="D78" s="175"/>
+      <c r="E78" s="175"/>
       <c r="F78" s="37" t="s">
         <v>67</v>
       </c>
@@ -3567,501 +3580,511 @@
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="126"/>
+      <c r="B79" s="133"/>
       <c r="C79" s="25"/>
-      <c r="D79" s="117" t="s">
+      <c r="D79" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="E79" s="117"/>
+      <c r="E79" s="124"/>
       <c r="F79" s="25" t="s">
         <v>63</v>
       </c>
       <c r="G79" s="26"/>
     </row>
     <row r="80" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="127"/>
+      <c r="B80" s="134"/>
       <c r="C80" s="34"/>
-      <c r="D80" s="108"/>
-      <c r="E80" s="120"/>
+      <c r="D80" s="111"/>
+      <c r="E80" s="125"/>
       <c r="F80" s="34"/>
       <c r="G80" s="35"/>
     </row>
     <row r="81" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="102" t="s">
+      <c r="B81" s="105" t="s">
         <v>103</v>
       </c>
-      <c r="C81" s="105" t="s">
+      <c r="C81" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="D81" s="106"/>
-      <c r="E81" s="114"/>
+      <c r="D81" s="109"/>
+      <c r="E81" s="129"/>
       <c r="F81" s="50" t="s">
         <v>63</v>
       </c>
       <c r="G81" s="48"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="103"/>
-      <c r="C82" s="107" t="s">
+      <c r="B82" s="106"/>
+      <c r="C82" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="D82" s="57"/>
-      <c r="E82" s="62"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="65"/>
       <c r="F82" s="36" t="s">
         <v>85</v>
       </c>
       <c r="G82" s="3"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B83" s="103"/>
-      <c r="C83" s="153" t="s">
+      <c r="B83" s="106"/>
+      <c r="C83" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="D83" s="154"/>
-      <c r="E83" s="155"/>
+      <c r="D83" s="119"/>
+      <c r="E83" s="120"/>
       <c r="F83" s="36" t="s">
         <v>85</v>
       </c>
       <c r="G83" s="22"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="103"/>
-      <c r="C84" s="153" t="s">
+      <c r="B84" s="106"/>
+      <c r="C84" s="118" t="s">
         <v>123</v>
       </c>
-      <c r="D84" s="154"/>
-      <c r="E84" s="155"/>
+      <c r="D84" s="119"/>
+      <c r="E84" s="120"/>
       <c r="F84" s="36" t="s">
         <v>85</v>
       </c>
       <c r="G84" s="22"/>
     </row>
     <row r="85" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="103"/>
-      <c r="C85" s="107" t="s">
+      <c r="B85" s="106"/>
+      <c r="C85" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="D85" s="57"/>
-      <c r="E85" s="62"/>
+      <c r="D85" s="60"/>
+      <c r="E85" s="65"/>
       <c r="F85" s="36" t="s">
         <v>85</v>
       </c>
       <c r="G85" s="3"/>
     </row>
     <row r="86" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="102" t="s">
+      <c r="B86" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="C86" s="105" t="s">
+      <c r="C86" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="D86" s="106"/>
-      <c r="E86" s="106"/>
+      <c r="D86" s="109"/>
+      <c r="E86" s="109"/>
       <c r="F86" s="53" t="s">
         <v>63</v>
       </c>
       <c r="G86" s="48"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="103"/>
-      <c r="C87" s="107" t="s">
+      <c r="B87" s="106"/>
+      <c r="C87" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="D87" s="57"/>
-      <c r="E87" s="57"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="60"/>
       <c r="F87" s="36" t="s">
         <v>63</v>
       </c>
       <c r="G87" s="3"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="103"/>
-      <c r="C88" s="107" t="s">
+      <c r="B88" s="106"/>
+      <c r="C88" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="D88" s="57"/>
-      <c r="E88" s="57"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
       <c r="F88" s="36" t="s">
         <v>63</v>
       </c>
       <c r="G88" s="3"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="103"/>
-      <c r="C89" s="107" t="s">
+      <c r="B89" s="106"/>
+      <c r="C89" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="D89" s="57"/>
-      <c r="E89" s="57"/>
+      <c r="D89" s="60"/>
+      <c r="E89" s="60"/>
       <c r="F89" s="36" t="s">
         <v>63</v>
       </c>
       <c r="G89" s="3"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="103"/>
-      <c r="C90" s="107" t="s">
+      <c r="B90" s="106"/>
+      <c r="C90" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="D90" s="57"/>
-      <c r="E90" s="57"/>
+      <c r="D90" s="60"/>
+      <c r="E90" s="60"/>
       <c r="F90" s="36" t="s">
         <v>63</v>
       </c>
       <c r="G90" s="3"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="103"/>
-      <c r="C91" s="107" t="s">
+      <c r="B91" s="106"/>
+      <c r="C91" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="D91" s="57"/>
-      <c r="E91" s="57"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="60"/>
       <c r="F91" s="36" t="s">
         <v>85</v>
       </c>
       <c r="G91" s="3"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="103"/>
-      <c r="C92" s="107" t="s">
+      <c r="B92" s="106"/>
+      <c r="C92" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="D92" s="57"/>
-      <c r="E92" s="57"/>
+      <c r="D92" s="60"/>
+      <c r="E92" s="60"/>
       <c r="F92" s="36" t="s">
         <v>77</v>
       </c>
       <c r="G92" s="3"/>
     </row>
     <row r="93" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="104"/>
-      <c r="C93" s="108"/>
-      <c r="D93" s="67"/>
-      <c r="E93" s="67"/>
+      <c r="B93" s="107"/>
+      <c r="C93" s="111"/>
+      <c r="D93" s="73"/>
+      <c r="E93" s="73"/>
       <c r="F93" s="34"/>
       <c r="G93" s="8"/>
     </row>
     <row r="94" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="102" t="s">
+      <c r="B94" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C94" s="105" t="s">
+      <c r="C94" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="D94" s="106"/>
-      <c r="E94" s="106"/>
+      <c r="D94" s="109"/>
+      <c r="E94" s="109"/>
       <c r="F94" s="53" t="s">
         <v>63</v>
       </c>
       <c r="G94" s="48"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="103"/>
-      <c r="C95" s="107" t="s">
+      <c r="B95" s="106"/>
+      <c r="C95" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="D95" s="57"/>
-      <c r="E95" s="57"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="60"/>
       <c r="F95" s="36" t="s">
         <v>85</v>
       </c>
       <c r="G95" s="3"/>
     </row>
     <row r="96" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="104"/>
-      <c r="C96" s="108"/>
-      <c r="D96" s="67"/>
-      <c r="E96" s="67"/>
+      <c r="B96" s="107"/>
+      <c r="C96" s="111"/>
+      <c r="D96" s="73"/>
+      <c r="E96" s="73"/>
       <c r="F96" s="34"/>
       <c r="G96" s="8"/>
     </row>
     <row r="97" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="102" t="s">
+      <c r="B97" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="C97" s="105" t="s">
+      <c r="C97" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="D97" s="106"/>
-      <c r="E97" s="106"/>
+      <c r="D97" s="109"/>
+      <c r="E97" s="109"/>
       <c r="F97" s="50" t="s">
         <v>63</v>
       </c>
       <c r="G97" s="48"/>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="103"/>
-      <c r="C98" s="107" t="s">
+      <c r="B98" s="106"/>
+      <c r="C98" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="D98" s="57"/>
-      <c r="E98" s="57"/>
+      <c r="D98" s="60"/>
+      <c r="E98" s="60"/>
       <c r="F98" s="36" t="s">
         <v>85</v>
       </c>
       <c r="G98" s="3"/>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="103"/>
-      <c r="C99" s="160" t="s">
+      <c r="B99" s="106"/>
+      <c r="C99" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="D99" s="161"/>
-      <c r="E99" s="162"/>
+      <c r="D99" s="116"/>
+      <c r="E99" s="117"/>
       <c r="F99" s="36" t="s">
         <v>77</v>
       </c>
       <c r="G99" s="22"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="103"/>
-      <c r="C100" s="153" t="s">
+      <c r="B100" s="106"/>
+      <c r="C100" s="118" t="s">
         <v>128</v>
       </c>
-      <c r="D100" s="154"/>
-      <c r="E100" s="155"/>
+      <c r="D100" s="119"/>
+      <c r="E100" s="120"/>
       <c r="F100" s="36" t="s">
         <v>85</v>
       </c>
       <c r="G100" s="22"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="103"/>
-      <c r="C101" s="153" t="s">
+      <c r="B101" s="106"/>
+      <c r="C101" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="D101" s="154"/>
-      <c r="E101" s="155"/>
+      <c r="D101" s="119"/>
+      <c r="E101" s="120"/>
       <c r="F101" s="36" t="s">
         <v>110</v>
       </c>
       <c r="G101" s="22"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B102" s="103"/>
-      <c r="C102" s="107" t="s">
+      <c r="B102" s="106"/>
+      <c r="C102" s="110" t="s">
         <v>125</v>
       </c>
-      <c r="D102" s="57"/>
-      <c r="E102" s="57"/>
+      <c r="D102" s="60"/>
+      <c r="E102" s="60"/>
       <c r="F102" s="36" t="s">
         <v>85</v>
       </c>
       <c r="G102" s="3"/>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="103"/>
-      <c r="C103" s="153" t="s">
+      <c r="B103" s="106"/>
+      <c r="C103" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="D103" s="154"/>
-      <c r="E103" s="155"/>
+      <c r="D103" s="119"/>
+      <c r="E103" s="120"/>
       <c r="F103" s="36" t="s">
         <v>85</v>
       </c>
       <c r="G103" s="22"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="103"/>
-      <c r="C104" s="153" t="s">
+      <c r="B104" s="106"/>
+      <c r="C104" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="D104" s="154"/>
-      <c r="E104" s="155"/>
+      <c r="D104" s="119"/>
+      <c r="E104" s="120"/>
       <c r="F104" s="36" t="s">
         <v>85</v>
       </c>
       <c r="G104" s="22"/>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="103"/>
-      <c r="C105" s="107" t="s">
+      <c r="B105" s="106"/>
+      <c r="C105" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="D105" s="57"/>
-      <c r="E105" s="57"/>
+      <c r="D105" s="60"/>
+      <c r="E105" s="60"/>
       <c r="F105" s="36" t="s">
         <v>85</v>
       </c>
       <c r="G105" s="3"/>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="103"/>
-      <c r="C106" s="109" t="s">
+      <c r="B106" s="106"/>
+      <c r="C106" s="112" t="s">
         <v>131</v>
       </c>
-      <c r="D106" s="75"/>
-      <c r="E106" s="75"/>
+      <c r="D106" s="69"/>
+      <c r="E106" s="69"/>
       <c r="F106" s="52" t="s">
         <v>85</v>
       </c>
       <c r="G106" s="14"/>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="103"/>
-      <c r="C107" s="158" t="s">
+      <c r="B107" s="106"/>
+      <c r="C107" s="176" t="s">
         <v>132</v>
       </c>
-      <c r="D107" s="163"/>
-      <c r="E107" s="159"/>
+      <c r="D107" s="177"/>
+      <c r="E107" s="178"/>
       <c r="F107" s="39" t="s">
         <v>67</v>
       </c>
       <c r="G107" s="22"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B108" s="103"/>
-      <c r="C108" s="37" t="s">
+      <c r="B108" s="106"/>
+      <c r="C108" s="55"/>
+      <c r="D108" s="121" t="s">
+        <v>27</v>
+      </c>
+      <c r="E108" s="122"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="54"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="106"/>
+      <c r="C109" s="174" t="s">
         <v>105</v>
       </c>
-      <c r="D108" s="112"/>
-      <c r="E108" s="113"/>
-      <c r="F108" s="36" t="s">
+      <c r="D109" s="179"/>
+      <c r="E109" s="180"/>
+      <c r="F109" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G108" s="3"/>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B109" s="103"/>
-      <c r="C109" s="110"/>
-      <c r="D109" s="54" t="s">
+      <c r="G109" s="3"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="106"/>
+      <c r="C110" s="113"/>
+      <c r="D110" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E109" s="74"/>
-      <c r="F109" s="36" t="s">
+      <c r="E110" s="79"/>
+      <c r="F110" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="G109" s="3"/>
-    </row>
-    <row r="110" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="104"/>
-      <c r="C110" s="111"/>
-      <c r="D110" s="108" t="s">
+      <c r="G110" s="3"/>
+    </row>
+    <row r="111" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="107"/>
+      <c r="C111" s="114"/>
+      <c r="D111" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="E110" s="67"/>
-      <c r="F110" s="34" t="s">
+      <c r="E111" s="73"/>
+      <c r="F111" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="G110" s="8"/>
-    </row>
-    <row r="111" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="102" t="s">
+      <c r="G111" s="8"/>
+    </row>
+    <row r="112" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="C111" s="105" t="s">
+      <c r="C112" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="D111" s="106"/>
-      <c r="E111" s="106"/>
-      <c r="F111" s="50" t="s">
+      <c r="D112" s="109"/>
+      <c r="E112" s="109"/>
+      <c r="F112" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="G111" s="48"/>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B112" s="103"/>
-      <c r="C112" s="107" t="s">
+      <c r="G112" s="48"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="106"/>
+      <c r="C113" s="110" t="s">
         <v>123</v>
       </c>
-      <c r="D112" s="57"/>
-      <c r="E112" s="57"/>
-      <c r="F112" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="G112" s="3"/>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="103"/>
-      <c r="C113" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="57"/>
-      <c r="E113" s="57"/>
+      <c r="D113" s="60"/>
+      <c r="E113" s="60"/>
       <c r="F113" s="36" t="s">
         <v>85</v>
       </c>
       <c r="G113" s="3"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B114" s="103"/>
-      <c r="C114" s="107" t="s">
+      <c r="B114" s="106"/>
+      <c r="C114" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="60"/>
+      <c r="E114" s="60"/>
+      <c r="F114" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="G114" s="3"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="106"/>
+      <c r="C115" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="D114" s="57"/>
-      <c r="E114" s="57"/>
-      <c r="F114" s="36" t="s">
+      <c r="D115" s="60"/>
+      <c r="E115" s="60"/>
+      <c r="F115" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="G114" s="3"/>
-    </row>
-    <row r="115" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="104"/>
-      <c r="C115" s="108"/>
-      <c r="D115" s="67"/>
-      <c r="E115" s="67"/>
-      <c r="F115" s="34"/>
-      <c r="G115" s="8"/>
-    </row>
-    <row r="116" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="164" t="s">
+      <c r="G115" s="3"/>
+    </row>
+    <row r="116" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="107"/>
+      <c r="C116" s="111"/>
+      <c r="D116" s="73"/>
+      <c r="E116" s="73"/>
+      <c r="F116" s="34"/>
+      <c r="G116" s="8"/>
+    </row>
+    <row r="117" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="157" t="s">
         <v>133</v>
       </c>
-      <c r="C116" s="165" t="s">
+      <c r="C117" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="D116" s="166"/>
-      <c r="E116" s="167"/>
-      <c r="F116" s="50" t="s">
+      <c r="D117" s="161"/>
+      <c r="E117" s="162"/>
+      <c r="F117" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="G116" s="51"/>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B117" s="168"/>
-      <c r="C117" s="153" t="s">
+      <c r="G117" s="51"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="158"/>
+      <c r="C118" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="D117" s="154"/>
-      <c r="E117" s="155"/>
-      <c r="F117" s="36" t="s">
+      <c r="D118" s="119"/>
+      <c r="E118" s="120"/>
+      <c r="F118" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="G117" s="26"/>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B118" s="168"/>
-      <c r="C118" s="153" t="s">
+      <c r="G118" s="26"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="158"/>
+      <c r="C119" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="D118" s="154"/>
-      <c r="E118" s="155"/>
-      <c r="F118" s="36" t="s">
+      <c r="D119" s="119"/>
+      <c r="E119" s="120"/>
+      <c r="F119" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="G118" s="26"/>
-    </row>
-    <row r="119" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="169"/>
-      <c r="C119" s="170" t="s">
+      <c r="G119" s="26"/>
+    </row>
+    <row r="120" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="159"/>
+      <c r="C120" s="163" t="s">
         <v>136</v>
       </c>
-      <c r="D119" s="171"/>
-      <c r="E119" s="172"/>
-      <c r="F119" s="173" t="s">
+      <c r="D120" s="164"/>
+      <c r="E120" s="165"/>
+      <c r="F120" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="G119" s="35"/>
-    </row>
-    <row r="120" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="G120" s="35"/>
+    </row>
+    <row r="121" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="128">
-    <mergeCell ref="B116:B119"/>
-    <mergeCell ref="C116:E116"/>
+  <mergeCells count="129">
+    <mergeCell ref="B117:B120"/>
     <mergeCell ref="C117:E117"/>
     <mergeCell ref="C118:E118"/>
     <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C120:E120"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
@@ -4074,6 +4097,13 @@
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="C19:C25"/>
     <mergeCell ref="D22:D25"/>
+    <mergeCell ref="B33:B50"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
@@ -4091,13 +4121,6 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B33:B50"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="C26:C27"/>
@@ -4163,28 +4186,29 @@
     <mergeCell ref="C88:E88"/>
     <mergeCell ref="C89:E89"/>
     <mergeCell ref="C90:E90"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="B112:B116"/>
     <mergeCell ref="C112:E112"/>
     <mergeCell ref="C113:E113"/>
     <mergeCell ref="C114:E114"/>
     <mergeCell ref="C115:E115"/>
-    <mergeCell ref="B97:B110"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="B97:B111"/>
     <mergeCell ref="C97:E97"/>
     <mergeCell ref="C98:E98"/>
     <mergeCell ref="C102:E102"/>
     <mergeCell ref="C105:E105"/>
     <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="C110:C111"/>
     <mergeCell ref="D109:E109"/>
     <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
     <mergeCell ref="C99:E99"/>
     <mergeCell ref="C101:E101"/>
     <mergeCell ref="C100:E100"/>
     <mergeCell ref="C104:E104"/>
     <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D107:E107"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" location="Collections!E4" display="Users"/>
@@ -4194,8 +4218,8 @@
     <hyperlink ref="B81:B85" location="Collections!S4" display="Publishers Collection"/>
     <hyperlink ref="B86:B93" location="Collections!S19" display="Reports Collection"/>
     <hyperlink ref="B94:B96" location="Collections!A19" display="Category Collection"/>
-    <hyperlink ref="B97:B110" location="Collections!W4" display="Groups Collection"/>
-    <hyperlink ref="B111:B115" location="Collections!W19" display="Slides Collection"/>
+    <hyperlink ref="B97:B111" location="Collections!W4" display="Groups Collection"/>
+    <hyperlink ref="B112:B116" location="Collections!W19" display="Slides Collection"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WIP/Users/VanTTC/BSN_MongoDB_Database_Design_v1.1.xlsx
+++ b/WIP/Users/VanTTC/BSN_MongoDB_Database_Design_v1.1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="137">
   <si>
     <t>Users Collection</t>
   </si>
@@ -301,9 +301,6 @@
   </si>
   <si>
     <t>List of comment of post</t>
-  </si>
-  <si>
-    <t>List of Like of a comment</t>
   </si>
   <si>
     <t>Books Collection</t>
@@ -1020,7 +1017,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1086,29 +1083,75 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1127,56 +1170,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1184,47 +1270,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1249,115 +1331,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1661,60 +1655,60 @@
   <sheetData>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="96"/>
-      <c r="E4" s="94" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="76"/>
+      <c r="E4" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="96"/>
-      <c r="J4" s="94" t="s">
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="76"/>
+      <c r="J4" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="96"/>
-      <c r="O4" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="96"/>
-      <c r="S4" s="101" t="s">
-        <v>103</v>
-      </c>
-      <c r="T4" s="95"/>
-      <c r="U4" s="96"/>
-      <c r="W4" s="101" t="s">
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="76"/>
+      <c r="O4" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="76"/>
+      <c r="S4" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="T4" s="80"/>
+      <c r="U4" s="76"/>
+      <c r="W4" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="96"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="76"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="99"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="99"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="99"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="99"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="99"/>
-      <c r="W5" s="97"/>
-      <c r="X5" s="98"/>
-      <c r="Y5" s="99"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="78"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="78"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="78"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="78"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="78"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="81"/>
+      <c r="Y5" s="78"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
@@ -1769,7 +1763,7 @@
       <c r="L7" s="60"/>
       <c r="M7" s="61"/>
       <c r="O7" s="59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P7" s="60"/>
       <c r="Q7" s="61"/>
@@ -1841,11 +1835,11 @@
       </c>
       <c r="P9" s="60"/>
       <c r="Q9" s="61"/>
-      <c r="S9" s="86" t="s">
+      <c r="S9" s="84" t="s">
         <v>32</v>
       </c>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="85"/>
       <c r="W9" s="59" t="s">
         <v>50</v>
       </c>
@@ -1875,46 +1869,46 @@
       </c>
       <c r="P10" s="60"/>
       <c r="Q10" s="61"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="100"/>
-      <c r="W10" s="86" t="s">
+      <c r="S10" s="82"/>
+      <c r="T10" s="86"/>
+      <c r="U10" s="87"/>
+      <c r="W10" s="84" t="s">
         <v>51</v>
       </c>
       <c r="X10" s="69"/>
-      <c r="Y10" s="87"/>
+      <c r="Y10" s="85"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="78"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="95"/>
       <c r="E11" s="59" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="60"/>
       <c r="G11" s="60"/>
       <c r="H11" s="61"/>
-      <c r="J11" s="86" t="s">
+      <c r="J11" s="84" t="s">
         <v>12</v>
       </c>
       <c r="K11" s="69"/>
       <c r="L11" s="69"/>
-      <c r="M11" s="87"/>
+      <c r="M11" s="85"/>
       <c r="O11" s="59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P11" s="60"/>
       <c r="Q11" s="61"/>
-      <c r="S11" s="71" t="s">
+      <c r="S11" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="T11" s="58"/>
+      <c r="T11" s="83"/>
       <c r="U11" s="3"/>
-      <c r="W11" s="71"/>
-      <c r="X11" s="79"/>
-      <c r="Y11" s="100"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="86"/>
+      <c r="Y11" s="87"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="59"/>
@@ -1926,15 +1920,15 @@
       <c r="F12" s="60"/>
       <c r="G12" s="60"/>
       <c r="H12" s="61"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="100"/>
-      <c r="O12" s="86" t="s">
+      <c r="J12" s="82"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="87"/>
+      <c r="O12" s="84" t="s">
         <v>32</v>
       </c>
       <c r="P12" s="69"/>
-      <c r="Q12" s="87"/>
+      <c r="Q12" s="85"/>
       <c r="S12" s="9"/>
       <c r="T12" s="12" t="s">
         <v>31</v>
@@ -1947,10 +1941,10 @@
       <c r="Y12" s="3"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="76"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="3"/>
       <c r="E13" s="59" t="s">
         <v>51</v>
@@ -1958,18 +1952,18 @@
       <c r="F13" s="60"/>
       <c r="G13" s="60"/>
       <c r="H13" s="61"/>
-      <c r="J13" s="71" t="s">
+      <c r="J13" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="79"/>
-      <c r="L13" s="58"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="83"/>
       <c r="M13" s="3"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="100"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="74"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="87"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="64"/>
       <c r="W13" s="9"/>
       <c r="X13" s="12" t="s">
         <v>27</v>
@@ -1982,38 +1976,38 @@
         <v>31</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="E14" s="86" t="s">
+      <c r="E14" s="84" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="69"/>
       <c r="G14" s="69"/>
-      <c r="H14" s="87"/>
+      <c r="H14" s="85"/>
       <c r="J14" s="9"/>
       <c r="K14" s="69" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="70"/>
       <c r="M14" s="3"/>
-      <c r="O14" s="71" t="s">
+      <c r="O14" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="P14" s="58"/>
+      <c r="P14" s="83"/>
       <c r="Q14" s="3"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-      <c r="W14" s="72"/>
-      <c r="X14" s="73"/>
-      <c r="Y14" s="74"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="64"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="72"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="82"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="98"/>
       <c r="J15" s="59"/>
       <c r="K15" s="60"/>
       <c r="L15" s="60"/>
@@ -2025,17 +2019,17 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="63"/>
-      <c r="G16" s="64"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="67"/>
       <c r="H16" s="3"/>
-      <c r="J16" s="62" t="s">
+      <c r="J16" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="63"/>
-      <c r="L16" s="64"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="67"/>
       <c r="M16" s="3"/>
       <c r="O16" s="1"/>
       <c r="P16" s="2"/>
@@ -2046,18 +2040,18 @@
       <c r="F17" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="65"/>
+      <c r="G17" s="68"/>
       <c r="H17" s="3"/>
       <c r="J17" s="1"/>
       <c r="K17" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="65"/>
+      <c r="L17" s="68"/>
       <c r="M17" s="3"/>
-      <c r="O17" s="71" t="s">
+      <c r="O17" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="P17" s="58"/>
+      <c r="P17" s="83"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2065,7 +2059,7 @@
       <c r="F18" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="65"/>
+      <c r="G18" s="68"/>
       <c r="H18" s="3"/>
       <c r="J18" s="9"/>
       <c r="K18" s="69" t="s">
@@ -2080,16 +2074,16 @@
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="72"/>
       <c r="E19" s="1"/>
       <c r="F19" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="65"/>
+      <c r="G19" s="68"/>
       <c r="H19" s="3"/>
       <c r="J19" s="59"/>
       <c r="K19" s="60"/>
@@ -2098,40 +2092,40 @@
       <c r="O19" s="59"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="61"/>
-      <c r="S19" s="88" t="s">
+      <c r="S19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="T19" s="90"/>
-      <c r="W19" s="101" t="s">
+      <c r="T19" s="72"/>
+      <c r="W19" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="X19" s="96"/>
+      <c r="X19" s="76"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="91"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="93"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="74"/>
       <c r="E20" s="1"/>
       <c r="F20" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="65"/>
+      <c r="G20" s="68"/>
       <c r="H20" s="3"/>
-      <c r="J20" s="62" t="s">
+      <c r="J20" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="63"/>
-      <c r="L20" s="64"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="67"/>
       <c r="M20" s="3"/>
-      <c r="O20" s="62" t="s">
+      <c r="O20" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="P20" s="64"/>
+      <c r="P20" s="67"/>
       <c r="Q20" s="3"/>
-      <c r="S20" s="91"/>
-      <c r="T20" s="93"/>
-      <c r="W20" s="97"/>
-      <c r="X20" s="99"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="74"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="78"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="59" t="s">
@@ -2143,13 +2137,13 @@
       <c r="F21" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="65"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="3"/>
       <c r="J21" s="1"/>
       <c r="K21" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="L21" s="65"/>
+      <c r="L21" s="68"/>
       <c r="M21" s="3"/>
       <c r="O21" s="1"/>
       <c r="P21" s="11" t="s">
@@ -2198,9 +2192,9 @@
       <c r="X22" s="61"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="72"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="74"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="64"/>
       <c r="E23" s="1"/>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
@@ -2224,17 +2218,17 @@
       <c r="X23" s="61"/>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="62" t="s">
+      <c r="E24" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="63"/>
-      <c r="G24" s="64"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67"/>
       <c r="H24" s="3"/>
-      <c r="J24" s="62" t="s">
+      <c r="J24" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="K24" s="63"/>
-      <c r="L24" s="64"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="67"/>
       <c r="M24" s="3"/>
       <c r="O24" s="9"/>
       <c r="P24" s="12" t="s">
@@ -2255,23 +2249,23 @@
       <c r="F25" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="65"/>
+      <c r="G25" s="68"/>
       <c r="H25" s="3"/>
       <c r="J25" s="1"/>
       <c r="K25" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="L25" s="65"/>
+      <c r="L25" s="68"/>
       <c r="M25" s="3"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="74"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="64"/>
       <c r="S25" s="59" t="s">
         <v>55</v>
       </c>
       <c r="T25" s="61"/>
-      <c r="W25" s="72"/>
-      <c r="X25" s="74"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="64"/>
     </row>
     <row r="26" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E26" s="1"/>
@@ -2284,7 +2278,7 @@
       <c r="K26" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="65"/>
+      <c r="L26" s="68"/>
       <c r="M26" s="3"/>
       <c r="S26" s="59" t="s">
         <v>56</v>
@@ -2293,16 +2287,16 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E27" s="1"/>
-      <c r="F27" s="68" t="s">
+      <c r="F27" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="64"/>
+      <c r="G27" s="67"/>
       <c r="H27" s="3"/>
       <c r="J27" s="1"/>
       <c r="K27" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="L27" s="65"/>
+      <c r="L27" s="68"/>
       <c r="M27" s="3"/>
       <c r="S27" s="59" t="s">
         <v>13</v>
@@ -2320,10 +2314,10 @@
       <c r="K28" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="L28" s="65"/>
+      <c r="L28" s="68"/>
       <c r="M28" s="3"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="74"/>
+      <c r="S28" s="62"/>
+      <c r="T28" s="64"/>
     </row>
     <row r="29" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E29" s="1"/>
@@ -2333,10 +2327,10 @@
       </c>
       <c r="H29" s="3"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="66" t="s">
+      <c r="K29" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="67"/>
+      <c r="L29" s="106"/>
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
@@ -2347,10 +2341,10 @@
       </c>
       <c r="H30" s="3"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="68" t="s">
+      <c r="K30" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="L30" s="64"/>
+      <c r="L30" s="67"/>
       <c r="M30" s="3"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -2380,11 +2374,11 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E33" s="102" t="s">
+      <c r="E33" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="103"/>
-      <c r="G33" s="104"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="90"/>
       <c r="H33" s="3"/>
       <c r="J33" s="1"/>
       <c r="K33" s="2"/>
@@ -2399,10 +2393,10 @@
       <c r="G34" s="70"/>
       <c r="H34" s="3"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="57" t="s">
+      <c r="K34" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="L34" s="58"/>
+      <c r="L34" s="83"/>
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="5:13" x14ac:dyDescent="0.25">
@@ -2418,11 +2412,11 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="83" t="s">
+      <c r="E36" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="84"/>
-      <c r="G36" s="85"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="101"/>
       <c r="H36" s="3"/>
       <c r="J36" s="4"/>
       <c r="K36" s="5"/>
@@ -2444,11 +2438,11 @@
       <c r="H38" s="61"/>
     </row>
     <row r="39" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E39" s="71" t="s">
+      <c r="E39" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="79"/>
-      <c r="G39" s="58"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="83"/>
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="5:13" x14ac:dyDescent="0.25">
@@ -2460,68 +2454,55 @@
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="72"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="74"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="64"/>
     </row>
     <row r="42" spans="5:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="S19:T20"/>
-    <mergeCell ref="W19:X20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="O4:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="W4:Y5"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="S4:U5"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A19:C20"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="J4:M5"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="K14:L14"/>
@@ -2546,47 +2527,60 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A19:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="W4:Y5"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="S4:U5"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="S19:T20"/>
+    <mergeCell ref="W19:X20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="J24:L24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4:H5" location="Description!B4" display="Users Collection"/>
@@ -2604,10 +2598,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G121"/>
+  <dimension ref="B1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2621,43 +2615,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="168" t="s">
+      <c r="D2" s="103"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="154" t="s">
+      <c r="G2" s="123" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="167"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="156"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="124"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
       <c r="F4" s="23" t="s">
         <v>63</v>
       </c>
@@ -2666,120 +2660,120 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="143"/>
-      <c r="C5" s="124" t="s">
+      <c r="B5" s="149"/>
+      <c r="C5" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
       <c r="F5" s="25" t="s">
         <v>66</v>
       </c>
       <c r="G5" s="26"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="143"/>
-      <c r="C6" s="124" t="s">
+      <c r="B6" s="149"/>
+      <c r="C6" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
       <c r="F6" s="25" t="s">
         <v>66</v>
       </c>
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="143"/>
-      <c r="C7" s="124" t="s">
+      <c r="B7" s="149"/>
+      <c r="C7" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
       <c r="F7" s="25" t="s">
         <v>66</v>
       </c>
       <c r="G7" s="26"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="143"/>
-      <c r="C8" s="124" t="s">
+      <c r="B8" s="149"/>
+      <c r="C8" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="144"/>
       <c r="F8" s="25" t="s">
         <v>66</v>
       </c>
       <c r="G8" s="26"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="143"/>
-      <c r="C9" s="124" t="s">
+      <c r="B9" s="149"/>
+      <c r="C9" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
       <c r="F9" s="25" t="s">
         <v>68</v>
       </c>
       <c r="G9" s="26"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="143"/>
-      <c r="C10" s="124" t="s">
+      <c r="B10" s="149"/>
+      <c r="C10" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
       <c r="F10" s="25" t="s">
         <v>85</v>
       </c>
       <c r="G10" s="26"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="143"/>
-      <c r="C11" s="124" t="s">
+      <c r="B11" s="149"/>
+      <c r="C11" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
       <c r="F11" s="25" t="s">
         <v>85</v>
       </c>
       <c r="G11" s="26"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="143"/>
+      <c r="B12" s="149"/>
       <c r="C12" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="153"/>
-      <c r="E12" s="153"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
       <c r="F12" s="32" t="s">
         <v>70</v>
       </c>
       <c r="G12" s="24"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="143"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="124" t="s">
+      <c r="B13" s="149"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="124"/>
+      <c r="E13" s="144"/>
       <c r="F13" s="25" t="s">
         <v>63</v>
       </c>
       <c r="G13" s="26"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="143"/>
-      <c r="C14" s="172"/>
-      <c r="D14" s="124" t="s">
+      <c r="B14" s="149"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="124"/>
+      <c r="E14" s="144"/>
       <c r="F14" s="25" t="s">
         <v>66</v>
       </c>
@@ -2788,12 +2782,12 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="143"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="124" t="s">
+      <c r="B15" s="149"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="124"/>
+      <c r="E15" s="144"/>
       <c r="F15" s="25" t="s">
         <v>63</v>
       </c>
@@ -2802,31 +2796,31 @@
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="143"/>
-      <c r="C16" s="172"/>
-      <c r="D16" s="124" t="s">
+      <c r="B16" s="149"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="124"/>
+      <c r="E16" s="144"/>
       <c r="F16" s="25" t="s">
         <v>66</v>
       </c>
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="143"/>
-      <c r="C17" s="173"/>
-      <c r="D17" s="123" t="s">
+      <c r="B17" s="149"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="123"/>
+      <c r="E17" s="131"/>
       <c r="F17" s="27" t="s">
         <v>66</v>
       </c>
       <c r="G17" s="28"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="143"/>
+      <c r="B18" s="149"/>
       <c r="C18" s="33" t="s">
         <v>73</v>
       </c>
@@ -2838,21 +2832,21 @@
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="143"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="110" t="s">
+      <c r="B19" s="149"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="65"/>
+      <c r="E19" s="68"/>
       <c r="F19" s="25" t="s">
         <v>63</v>
       </c>
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="143"/>
-      <c r="C20" s="172"/>
-      <c r="D20" s="112" t="s">
+      <c r="B20" s="149"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="143" t="s">
         <v>74</v>
       </c>
       <c r="E20" s="70"/>
@@ -2864,8 +2858,8 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="143"/>
-      <c r="C21" s="172"/>
+      <c r="B21" s="149"/>
+      <c r="C21" s="132"/>
       <c r="D21" s="32" t="s">
         <v>76</v>
       </c>
@@ -2876,9 +2870,9 @@
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="143"/>
-      <c r="C22" s="172"/>
-      <c r="D22" s="113"/>
+      <c r="B22" s="149"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="134"/>
       <c r="E22" s="25" t="s">
         <v>1</v>
       </c>
@@ -2888,9 +2882,9 @@
       <c r="G22" s="26"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="143"/>
-      <c r="C23" s="172"/>
-      <c r="D23" s="113"/>
+      <c r="B23" s="149"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="134"/>
       <c r="E23" s="25" t="s">
         <v>17</v>
       </c>
@@ -2900,9 +2894,9 @@
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="143"/>
-      <c r="C24" s="172"/>
-      <c r="D24" s="113"/>
+      <c r="B24" s="149"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="134"/>
       <c r="E24" s="25" t="s">
         <v>56</v>
       </c>
@@ -2912,9 +2906,9 @@
       <c r="G24" s="26"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="143"/>
-      <c r="C25" s="173"/>
-      <c r="D25" s="145"/>
+      <c r="B25" s="149"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="135"/>
       <c r="E25" s="27" t="s">
         <v>13</v>
       </c>
@@ -2924,12 +2918,12 @@
       <c r="G25" s="28"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="143"/>
-      <c r="C26" s="140" t="s">
+      <c r="B26" s="149"/>
+      <c r="C26" s="129" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
       <c r="F26" s="37" t="s">
         <v>67</v>
       </c>
@@ -2938,9 +2932,9 @@
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="143"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="112" t="s">
+      <c r="B27" s="149"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="143" t="s">
         <v>27</v>
       </c>
       <c r="E27" s="70"/>
@@ -2950,12 +2944,12 @@
       <c r="G27" s="28"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="143"/>
-      <c r="C28" s="140" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="126"/>
-      <c r="E28" s="126"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="129" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="142"/>
+      <c r="E28" s="142"/>
       <c r="F28" s="37" t="s">
         <v>67</v>
       </c>
@@ -2964,24 +2958,24 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="143"/>
-      <c r="C29" s="141"/>
-      <c r="D29" s="126" t="s">
+      <c r="B29" s="149"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="126"/>
+      <c r="E29" s="142"/>
       <c r="F29" s="37" t="s">
         <v>63</v>
       </c>
       <c r="G29" s="28"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="143"/>
-      <c r="C30" s="140" t="s">
+      <c r="B30" s="149"/>
+      <c r="C30" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="142"/>
       <c r="F30" s="37" t="s">
         <v>67</v>
       </c>
@@ -2990,34 +2984,34 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="143"/>
-      <c r="C31" s="151"/>
-      <c r="D31" s="110" t="s">
+      <c r="B31" s="149"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="65"/>
+      <c r="E31" s="68"/>
       <c r="F31" s="25" t="s">
         <v>63</v>
       </c>
       <c r="G31" s="26"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="144"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="125"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="158"/>
       <c r="F32" s="34"/>
       <c r="G32" s="35"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="105" t="s">
+      <c r="B33" s="166" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="108" t="s">
+      <c r="C33" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="109"/>
-      <c r="E33" s="129"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="140"/>
       <c r="F33" s="43" t="s">
         <v>63</v>
       </c>
@@ -3026,48 +3020,48 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="106"/>
-      <c r="C34" s="110" t="s">
+      <c r="B34" s="167"/>
+      <c r="C34" s="141" t="s">
         <v>56</v>
       </c>
       <c r="D34" s="60"/>
-      <c r="E34" s="65"/>
+      <c r="E34" s="68"/>
       <c r="F34" s="44" t="s">
         <v>85</v>
       </c>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="106"/>
-      <c r="C35" s="110" t="s">
-        <v>108</v>
+      <c r="B35" s="167"/>
+      <c r="C35" s="141" t="s">
+        <v>107</v>
       </c>
       <c r="D35" s="60"/>
-      <c r="E35" s="65"/>
+      <c r="E35" s="68"/>
       <c r="F35" s="44" t="s">
         <v>85</v>
       </c>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="106"/>
-      <c r="C36" s="110" t="s">
+      <c r="B36" s="167"/>
+      <c r="C36" s="143" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="69"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="60"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="44" t="s">
-        <v>110</v>
-      </c>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="106"/>
-      <c r="C37" s="140" t="s">
+      <c r="B37" s="167"/>
+      <c r="C37" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="147"/>
-      <c r="E37" s="148"/>
+      <c r="D37" s="151"/>
+      <c r="E37" s="152"/>
       <c r="F37" s="46" t="s">
         <v>67</v>
       </c>
@@ -3076,19 +3070,19 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="106"/>
-      <c r="C38" s="141"/>
-      <c r="D38" s="126" t="s">
+      <c r="B38" s="167"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="126"/>
+      <c r="E38" s="152"/>
       <c r="F38" s="46" t="s">
         <v>63</v>
       </c>
       <c r="G38" s="14"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="106"/>
+      <c r="B39" s="167"/>
       <c r="C39" s="29" t="s">
         <v>88</v>
       </c>
@@ -3102,8 +3096,8 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="106"/>
-      <c r="C40" s="149"/>
+      <c r="B40" s="167"/>
+      <c r="C40" s="153"/>
       <c r="D40" s="2" t="s">
         <v>38</v>
       </c>
@@ -3114,10 +3108,10 @@
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="106"/>
-      <c r="C41" s="150"/>
+      <c r="B41" s="167"/>
+      <c r="C41" s="154"/>
       <c r="D41" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="45" t="s">
@@ -3126,7 +3120,7 @@
       <c r="G41" s="14"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="106"/>
+      <c r="B42" s="167"/>
       <c r="C42" s="49" t="s">
         <v>90</v>
       </c>
@@ -3140,8 +3134,8 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="106"/>
-      <c r="C43" s="113"/>
+      <c r="B43" s="167"/>
+      <c r="C43" s="134"/>
       <c r="D43" s="15" t="s">
         <v>1</v>
       </c>
@@ -3152,8 +3146,8 @@
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="106"/>
-      <c r="C44" s="113"/>
+      <c r="B44" s="167"/>
+      <c r="C44" s="134"/>
       <c r="D44" s="15" t="s">
         <v>38</v>
       </c>
@@ -3164,8 +3158,8 @@
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="106"/>
-      <c r="C45" s="113"/>
+      <c r="B45" s="167"/>
+      <c r="C45" s="134"/>
       <c r="D45" s="15" t="s">
         <v>56</v>
       </c>
@@ -3176,10 +3170,10 @@
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="106"/>
-      <c r="C46" s="113"/>
+      <c r="B46" s="167"/>
+      <c r="C46" s="134"/>
       <c r="D46" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11" t="s">
@@ -3187,498 +3181,496 @@
       </c>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="106"/>
-      <c r="C47" s="113"/>
+    <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="167"/>
+      <c r="C47" s="134"/>
       <c r="D47" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="106"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="E48" s="30"/>
-      <c r="F48" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="G48" s="20" t="s">
+    <row r="48" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="166" t="s">
         <v>92</v>
       </c>
+      <c r="C48" s="138" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="139"/>
+      <c r="E48" s="140"/>
+      <c r="F48" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" s="48"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="106"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="145"/>
-      <c r="E49" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>63</v>
+      <c r="B49" s="167"/>
+      <c r="C49" s="141" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="60"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="44" t="s">
+        <v>85</v>
       </c>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="106"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="146"/>
-      <c r="E50" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="F50" s="12" t="s">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="167"/>
+      <c r="C50" s="141" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="60"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="G50" s="14"/>
-    </row>
-    <row r="51" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="137" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="108" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="109"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="G51" s="48"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="167"/>
+      <c r="C51" s="141" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" s="60"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" s="3"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="138"/>
-      <c r="C52" s="110" t="s">
-        <v>94</v>
+      <c r="B52" s="167"/>
+      <c r="C52" s="141" t="s">
+        <v>10</v>
       </c>
       <c r="D52" s="60"/>
-      <c r="E52" s="65"/>
+      <c r="E52" s="68"/>
       <c r="F52" s="44" t="s">
         <v>85</v>
       </c>
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="138"/>
-      <c r="C53" s="110" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" s="60"/>
-      <c r="E53" s="65"/>
+      <c r="B53" s="167"/>
+      <c r="C53" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="114"/>
+      <c r="E53" s="115"/>
       <c r="F53" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="G53" s="3"/>
+      <c r="G53" s="22"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="138"/>
-      <c r="C54" s="110" t="s">
+      <c r="B54" s="167"/>
+      <c r="C54" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="D54" s="60"/>
-      <c r="E54" s="65"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="115"/>
       <c r="F54" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="G54" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="138"/>
-      <c r="C55" s="110" t="s">
-        <v>10</v>
+      <c r="B55" s="167"/>
+      <c r="C55" s="141" t="s">
+        <v>32</v>
       </c>
       <c r="D55" s="60"/>
-      <c r="E55" s="65"/>
+      <c r="E55" s="68"/>
       <c r="F55" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="G55" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="167"/>
+      <c r="C56" s="143" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="69"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="167"/>
+      <c r="C57" s="165" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="142"/>
+      <c r="E57" s="142"/>
+      <c r="F57" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="167"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="142" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" s="142"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="28"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="167"/>
+      <c r="C59" s="129" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" s="127"/>
+      <c r="E59" s="128"/>
+      <c r="F59" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G59" s="26"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="167"/>
+      <c r="C60" s="130"/>
+      <c r="D60" s="125" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" s="126"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="26"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="167"/>
+      <c r="C61" s="165" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="142"/>
+      <c r="E61" s="142"/>
+      <c r="F61" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="167"/>
+      <c r="C62" s="165"/>
+      <c r="D62" s="142" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="142"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="28"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="167"/>
+      <c r="C63" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" s="159"/>
+      <c r="E63" s="160"/>
+      <c r="F63" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="167"/>
+      <c r="C64" s="134"/>
+      <c r="D64" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" s="131"/>
+      <c r="F64" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G64" s="3"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="167"/>
+      <c r="C65" s="134"/>
+      <c r="D65" s="142" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" s="142"/>
+      <c r="F65" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G65" s="3"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="167"/>
+      <c r="C66" s="134"/>
+      <c r="D66" s="142" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="142"/>
+      <c r="F66" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="138"/>
-      <c r="C56" s="118" t="s">
+      <c r="G66" s="3"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="167"/>
+      <c r="C67" s="170"/>
+      <c r="D67" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="119"/>
-      <c r="E56" s="120"/>
-      <c r="F56" s="44" t="s">
+      <c r="E67" s="147"/>
+      <c r="F67" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="G56" s="22"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="138"/>
-      <c r="C57" s="118" t="s">
-        <v>116</v>
-      </c>
-      <c r="D57" s="119"/>
-      <c r="E57" s="120"/>
-      <c r="F57" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="G57" s="26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="138"/>
-      <c r="C58" s="110" t="s">
+      <c r="G67" s="3"/>
+    </row>
+    <row r="68" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="168"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="157"/>
+      <c r="E68" s="158"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="161" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" s="164" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="164"/>
+      <c r="E69" s="164"/>
+      <c r="F69" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="G69" s="51"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="162"/>
+      <c r="C70" s="144" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="144"/>
+      <c r="E70" s="144"/>
+      <c r="F70" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G70" s="26"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="162"/>
+      <c r="C71" s="144" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" s="144"/>
+      <c r="E71" s="144"/>
+      <c r="F71" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="G71" s="26"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="162"/>
+      <c r="C72" s="144" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="144"/>
+      <c r="E72" s="144"/>
+      <c r="F72" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="G72" s="26"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="162"/>
+      <c r="C73" s="144" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="144"/>
+      <c r="E73" s="144"/>
+      <c r="F73" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="G73" s="26"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="162"/>
+      <c r="C74" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="60"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="G58" s="26" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="138"/>
-      <c r="C59" s="112" t="s">
-        <v>117</v>
-      </c>
-      <c r="D59" s="69"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="G59" s="26" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="138"/>
-      <c r="C60" s="136" t="s">
-        <v>97</v>
-      </c>
-      <c r="D60" s="126"/>
-      <c r="E60" s="126"/>
-      <c r="F60" s="39" t="s">
+      <c r="D74" s="131"/>
+      <c r="E74" s="131"/>
+      <c r="F74" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G74" s="28"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="162"/>
+      <c r="C75" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75" s="169"/>
+      <c r="E75" s="169"/>
+      <c r="F75" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="G60" s="24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="138"/>
-      <c r="C61" s="136"/>
-      <c r="D61" s="126" t="s">
-        <v>45</v>
-      </c>
-      <c r="E61" s="126"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="28"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="138"/>
-      <c r="C62" s="140" t="s">
-        <v>121</v>
-      </c>
-      <c r="D62" s="170"/>
-      <c r="E62" s="171"/>
-      <c r="F62" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="G62" s="26"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="138"/>
-      <c r="C63" s="141"/>
-      <c r="D63" s="121" t="s">
+      <c r="G75" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="162"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="144" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76" s="144"/>
+      <c r="F76" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G76" s="26"/>
+    </row>
+    <row r="77" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="163"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="157"/>
+      <c r="E77" s="158"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="35"/>
+    </row>
+    <row r="78" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="136" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78" s="138" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="139"/>
+      <c r="E78" s="140"/>
+      <c r="F78" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="G78" s="48"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="137"/>
+      <c r="C79" s="141" t="s">
+        <v>59</v>
+      </c>
+      <c r="D79" s="60"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="137"/>
+      <c r="C80" s="113" t="s">
+        <v>123</v>
+      </c>
+      <c r="D80" s="114"/>
+      <c r="E80" s="115"/>
+      <c r="F80" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="G80" s="22"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="137"/>
+      <c r="C81" s="113" t="s">
         <v>122</v>
       </c>
-      <c r="E63" s="122"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="26"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="138"/>
-      <c r="C64" s="136" t="s">
-        <v>98</v>
-      </c>
-      <c r="D64" s="126"/>
-      <c r="E64" s="126"/>
-      <c r="F64" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="G64" s="24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="138"/>
-      <c r="C65" s="136"/>
-      <c r="D65" s="126" t="s">
-        <v>24</v>
-      </c>
-      <c r="E65" s="126"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="28"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="138"/>
-      <c r="C66" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="D66" s="130"/>
-      <c r="E66" s="131"/>
-      <c r="F66" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="138"/>
-      <c r="C67" s="113"/>
-      <c r="D67" s="123" t="s">
-        <v>1</v>
-      </c>
-      <c r="E67" s="123"/>
-      <c r="F67" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="138"/>
-      <c r="C68" s="113"/>
-      <c r="D68" s="126" t="s">
-        <v>27</v>
-      </c>
-      <c r="E68" s="126"/>
-      <c r="F68" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="138"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="126" t="s">
-        <v>17</v>
-      </c>
-      <c r="E69" s="126"/>
-      <c r="F69" s="37" t="s">
+      <c r="D81" s="114"/>
+      <c r="E81" s="115"/>
+      <c r="F81" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="138"/>
-      <c r="C70" s="128"/>
-      <c r="D70" s="127" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="127"/>
-      <c r="F70" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="139"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="111"/>
-      <c r="E71" s="125"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="8"/>
-    </row>
-    <row r="72" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="132" t="s">
-        <v>84</v>
-      </c>
-      <c r="C72" s="135" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72" s="135"/>
-      <c r="E72" s="135"/>
-      <c r="F72" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="G72" s="51"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="133"/>
-      <c r="C73" s="124" t="s">
-        <v>27</v>
-      </c>
-      <c r="D73" s="124"/>
-      <c r="E73" s="124"/>
-      <c r="F73" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="G73" s="26"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="133"/>
-      <c r="C74" s="124" t="s">
-        <v>26</v>
-      </c>
-      <c r="D74" s="124"/>
-      <c r="E74" s="124"/>
-      <c r="F74" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="G74" s="26"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="133"/>
-      <c r="C75" s="124" t="s">
-        <v>29</v>
-      </c>
-      <c r="D75" s="124"/>
-      <c r="E75" s="124"/>
-      <c r="F75" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="G75" s="26"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="133"/>
-      <c r="C76" s="124" t="s">
+      <c r="G81" s="22"/>
+    </row>
+    <row r="82" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="137"/>
+      <c r="C82" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="D76" s="124"/>
-      <c r="E76" s="124"/>
-      <c r="F76" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="G76" s="26"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="133"/>
-      <c r="C77" s="123" t="s">
-        <v>32</v>
-      </c>
-      <c r="D77" s="123"/>
-      <c r="E77" s="123"/>
-      <c r="F77" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="G77" s="28"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="133"/>
-      <c r="C78" s="174" t="s">
-        <v>101</v>
-      </c>
-      <c r="D78" s="175"/>
-      <c r="E78" s="175"/>
-      <c r="F78" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="G78" s="24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="133"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="124" t="s">
-        <v>31</v>
-      </c>
-      <c r="E79" s="124"/>
-      <c r="F79" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G79" s="26"/>
-    </row>
-    <row r="80" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="134"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="111"/>
-      <c r="E80" s="125"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="35"/>
-    </row>
-    <row r="81" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="C81" s="108" t="s">
-        <v>1</v>
-      </c>
-      <c r="D81" s="109"/>
-      <c r="E81" s="129"/>
-      <c r="F81" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="G81" s="48"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="106"/>
-      <c r="C82" s="110" t="s">
-        <v>59</v>
-      </c>
       <c r="D82" s="60"/>
-      <c r="E82" s="65"/>
+      <c r="E82" s="68"/>
       <c r="F82" s="36" t="s">
         <v>85</v>
       </c>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B83" s="106"/>
-      <c r="C83" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="D83" s="119"/>
-      <c r="E83" s="120"/>
-      <c r="F83" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="G83" s="22"/>
+    <row r="83" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="136" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83" s="138" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" s="139"/>
+      <c r="E83" s="139"/>
+      <c r="F83" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="G83" s="48"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="106"/>
-      <c r="C84" s="118" t="s">
-        <v>123</v>
-      </c>
-      <c r="D84" s="119"/>
-      <c r="E84" s="120"/>
+      <c r="B84" s="137"/>
+      <c r="C84" s="141" t="s">
+        <v>27</v>
+      </c>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
       <c r="F84" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="G84" s="22"/>
-    </row>
-    <row r="85" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="106"/>
-      <c r="C85" s="110" t="s">
-        <v>30</v>
+        <v>63</v>
+      </c>
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="137"/>
+      <c r="C85" s="141" t="s">
+        <v>35</v>
       </c>
       <c r="D85" s="60"/>
-      <c r="E85" s="65"/>
+      <c r="E85" s="60"/>
       <c r="F85" s="36" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="105" t="s">
-        <v>53</v>
-      </c>
-      <c r="C86" s="108" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86" s="109"/>
-      <c r="E86" s="109"/>
-      <c r="F86" s="53" t="s">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="137"/>
+      <c r="C86" s="141" t="s">
+        <v>54</v>
+      </c>
+      <c r="D86" s="60"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="G86" s="48"/>
+      <c r="G86" s="3"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="106"/>
-      <c r="C87" s="110" t="s">
-        <v>27</v>
+      <c r="B87" s="137"/>
+      <c r="C87" s="141" t="s">
+        <v>103</v>
       </c>
       <c r="D87" s="60"/>
       <c r="E87" s="60"/>
@@ -3688,91 +3680,89 @@
       <c r="G87" s="3"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="106"/>
-      <c r="C88" s="110" t="s">
-        <v>35</v>
+      <c r="B88" s="137"/>
+      <c r="C88" s="141" t="s">
+        <v>56</v>
       </c>
       <c r="D88" s="60"/>
       <c r="E88" s="60"/>
       <c r="F88" s="36" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="G88" s="3"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="106"/>
-      <c r="C89" s="110" t="s">
-        <v>54</v>
+      <c r="B89" s="137"/>
+      <c r="C89" s="141" t="s">
+        <v>13</v>
       </c>
       <c r="D89" s="60"/>
       <c r="E89" s="60"/>
       <c r="F89" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G89" s="3"/>
+    </row>
+    <row r="90" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="171"/>
+      <c r="C90" s="157"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="63"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="136" t="s">
+        <v>58</v>
+      </c>
+      <c r="C91" s="138" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="139"/>
+      <c r="E91" s="139"/>
+      <c r="F91" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="G89" s="3"/>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="106"/>
-      <c r="C90" s="110" t="s">
-        <v>104</v>
-      </c>
-      <c r="D90" s="60"/>
-      <c r="E90" s="60"/>
-      <c r="F90" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="G90" s="3"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="106"/>
-      <c r="C91" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="D91" s="60"/>
-      <c r="E91" s="60"/>
-      <c r="F91" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="G91" s="3"/>
+      <c r="G91" s="48"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="106"/>
-      <c r="C92" s="110" t="s">
-        <v>13</v>
+      <c r="B92" s="137"/>
+      <c r="C92" s="141" t="s">
+        <v>59</v>
       </c>
       <c r="D92" s="60"/>
       <c r="E92" s="60"/>
       <c r="F92" s="36" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G92" s="3"/>
     </row>
     <row r="93" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="107"/>
-      <c r="C93" s="111"/>
-      <c r="D93" s="73"/>
-      <c r="E93" s="73"/>
+      <c r="B93" s="171"/>
+      <c r="C93" s="157"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="63"/>
       <c r="F93" s="34"/>
       <c r="G93" s="8"/>
     </row>
     <row r="94" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="C94" s="108" t="s">
+      <c r="B94" s="136" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="D94" s="109"/>
-      <c r="E94" s="109"/>
-      <c r="F94" s="53" t="s">
+      <c r="D94" s="139"/>
+      <c r="E94" s="139"/>
+      <c r="F94" s="50" t="s">
         <v>63</v>
       </c>
       <c r="G94" s="48"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="106"/>
-      <c r="C95" s="110" t="s">
-        <v>59</v>
+      <c r="B95" s="137"/>
+      <c r="C95" s="141" t="s">
+        <v>49</v>
       </c>
       <c r="D95" s="60"/>
       <c r="E95" s="60"/>
@@ -3781,80 +3771,82 @@
       </c>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="107"/>
-      <c r="C96" s="111"/>
-      <c r="D96" s="73"/>
-      <c r="E96" s="73"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="8"/>
-    </row>
-    <row r="97" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="105" t="s">
-        <v>48</v>
-      </c>
-      <c r="C97" s="108" t="s">
-        <v>1</v>
-      </c>
-      <c r="D97" s="109"/>
-      <c r="E97" s="109"/>
-      <c r="F97" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="G97" s="48"/>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="137"/>
+      <c r="C96" s="175" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96" s="176"/>
+      <c r="E96" s="177"/>
+      <c r="F96" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G96" s="22"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="137"/>
+      <c r="C97" s="113" t="s">
+        <v>127</v>
+      </c>
+      <c r="D97" s="114"/>
+      <c r="E97" s="115"/>
+      <c r="F97" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="G97" s="22"/>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="106"/>
-      <c r="C98" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="D98" s="60"/>
-      <c r="E98" s="60"/>
+      <c r="B98" s="137"/>
+      <c r="C98" s="113" t="s">
+        <v>126</v>
+      </c>
+      <c r="D98" s="114"/>
+      <c r="E98" s="115"/>
       <c r="F98" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G98" s="22"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="137"/>
+      <c r="C99" s="141" t="s">
+        <v>124</v>
+      </c>
+      <c r="D99" s="60"/>
+      <c r="E99" s="60"/>
+      <c r="F99" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="G98" s="3"/>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="106"/>
-      <c r="C99" s="115" t="s">
-        <v>126</v>
-      </c>
-      <c r="D99" s="116"/>
-      <c r="E99" s="117"/>
-      <c r="F99" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="G99" s="22"/>
+      <c r="G99" s="3"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="106"/>
-      <c r="C100" s="118" t="s">
+      <c r="B100" s="137"/>
+      <c r="C100" s="113" t="s">
         <v>128</v>
       </c>
-      <c r="D100" s="119"/>
-      <c r="E100" s="120"/>
+      <c r="D100" s="114"/>
+      <c r="E100" s="115"/>
       <c r="F100" s="36" t="s">
         <v>85</v>
       </c>
       <c r="G100" s="22"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="106"/>
-      <c r="C101" s="118" t="s">
-        <v>127</v>
-      </c>
-      <c r="D101" s="119"/>
-      <c r="E101" s="120"/>
+      <c r="B101" s="137"/>
+      <c r="C101" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="114"/>
+      <c r="E101" s="115"/>
       <c r="F101" s="36" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="G101" s="22"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B102" s="106"/>
-      <c r="C102" s="110" t="s">
-        <v>125</v>
+      <c r="B102" s="137"/>
+      <c r="C102" s="141" t="s">
+        <v>129</v>
       </c>
       <c r="D102" s="60"/>
       <c r="E102" s="60"/>
@@ -3864,246 +3856,273 @@
       <c r="G102" s="3"/>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="106"/>
-      <c r="C103" s="118" t="s">
-        <v>129</v>
-      </c>
-      <c r="D103" s="119"/>
-      <c r="E103" s="120"/>
-      <c r="F103" s="36" t="s">
+      <c r="B103" s="137"/>
+      <c r="C103" s="143" t="s">
+        <v>130</v>
+      </c>
+      <c r="D103" s="69"/>
+      <c r="E103" s="69"/>
+      <c r="F103" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="G103" s="22"/>
+      <c r="G103" s="14"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="106"/>
-      <c r="C104" s="118" t="s">
+      <c r="B104" s="137"/>
+      <c r="C104" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="D104" s="178"/>
+      <c r="E104" s="179"/>
+      <c r="F104" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="G104" s="22"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="137"/>
+      <c r="C105" s="55"/>
+      <c r="D105" s="125" t="s">
+        <v>27</v>
+      </c>
+      <c r="E105" s="126"/>
+      <c r="F105" s="36"/>
+      <c r="G105" s="54"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="137"/>
+      <c r="C106" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="D106" s="173"/>
+      <c r="E106" s="174"/>
+      <c r="F106" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G106" s="3"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="137"/>
+      <c r="C107" s="134"/>
+      <c r="D107" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="E107" s="86"/>
+      <c r="F107" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G107" s="3"/>
+    </row>
+    <row r="108" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="171"/>
+      <c r="C108" s="172"/>
+      <c r="D108" s="157" t="s">
+        <v>136</v>
+      </c>
+      <c r="E108" s="63"/>
+      <c r="F108" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G108" s="8"/>
+    </row>
+    <row r="109" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="136" t="s">
+        <v>105</v>
+      </c>
+      <c r="C109" s="138" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" s="139"/>
+      <c r="E109" s="139"/>
+      <c r="F109" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="G109" s="48"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="137"/>
+      <c r="C110" s="141" t="s">
+        <v>122</v>
+      </c>
+      <c r="D110" s="60"/>
+      <c r="E110" s="60"/>
+      <c r="F110" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="G110" s="3"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="137"/>
+      <c r="C111" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="D104" s="119"/>
-      <c r="E104" s="120"/>
-      <c r="F104" s="36" t="s">
+      <c r="D111" s="60"/>
+      <c r="E111" s="60"/>
+      <c r="F111" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="G104" s="22"/>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="106"/>
-      <c r="C105" s="110" t="s">
-        <v>130</v>
-      </c>
-      <c r="D105" s="60"/>
-      <c r="E105" s="60"/>
-      <c r="F105" s="36" t="s">
+      <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="137"/>
+      <c r="C112" s="141" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" s="60"/>
+      <c r="E112" s="60"/>
+      <c r="F112" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G112" s="3"/>
+    </row>
+    <row r="113" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="171"/>
+      <c r="C113" s="157"/>
+      <c r="D113" s="63"/>
+      <c r="E113" s="63"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="8"/>
+    </row>
+    <row r="114" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="C114" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="D114" s="111"/>
+      <c r="E114" s="112"/>
+      <c r="F114" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="G114" s="51"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="108"/>
+      <c r="C115" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="D115" s="114"/>
+      <c r="E115" s="115"/>
+      <c r="F115" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="G105" s="3"/>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="106"/>
-      <c r="C106" s="112" t="s">
-        <v>131</v>
-      </c>
-      <c r="D106" s="69"/>
-      <c r="E106" s="69"/>
-      <c r="F106" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="G106" s="14"/>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="106"/>
-      <c r="C107" s="176" t="s">
-        <v>132</v>
-      </c>
-      <c r="D107" s="177"/>
-      <c r="E107" s="178"/>
-      <c r="F107" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="G107" s="22"/>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B108" s="106"/>
-      <c r="C108" s="55"/>
-      <c r="D108" s="121" t="s">
-        <v>27</v>
-      </c>
-      <c r="E108" s="122"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="54"/>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B109" s="106"/>
-      <c r="C109" s="174" t="s">
-        <v>105</v>
-      </c>
-      <c r="D109" s="179"/>
-      <c r="E109" s="180"/>
-      <c r="F109" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="G109" s="3"/>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B110" s="106"/>
-      <c r="C110" s="113"/>
-      <c r="D110" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="E110" s="79"/>
-      <c r="F110" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="G110" s="3"/>
-    </row>
-    <row r="111" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="107"/>
-      <c r="C111" s="114"/>
-      <c r="D111" s="111" t="s">
-        <v>137</v>
-      </c>
-      <c r="E111" s="73"/>
-      <c r="F111" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="G111" s="8"/>
-    </row>
-    <row r="112" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="105" t="s">
-        <v>106</v>
-      </c>
-      <c r="C112" s="108" t="s">
-        <v>1</v>
-      </c>
-      <c r="D112" s="109"/>
-      <c r="E112" s="109"/>
-      <c r="F112" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="G112" s="48"/>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="106"/>
-      <c r="C113" s="110" t="s">
-        <v>123</v>
-      </c>
-      <c r="D113" s="60"/>
-      <c r="E113" s="60"/>
-      <c r="F113" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="G113" s="3"/>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B114" s="106"/>
-      <c r="C114" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="60"/>
-      <c r="E114" s="60"/>
-      <c r="F114" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="G114" s="3"/>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B115" s="106"/>
-      <c r="C115" s="110" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115" s="60"/>
-      <c r="E115" s="60"/>
-      <c r="F115" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="G115" s="3"/>
-    </row>
-    <row r="116" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="107"/>
-      <c r="C116" s="111"/>
-      <c r="D116" s="73"/>
-      <c r="E116" s="73"/>
-      <c r="F116" s="34"/>
-      <c r="G116" s="8"/>
-    </row>
-    <row r="117" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="157" t="s">
+      <c r="G115" s="26"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="108"/>
+      <c r="C116" s="113" t="s">
         <v>133</v>
       </c>
-      <c r="C117" s="160" t="s">
-        <v>1</v>
-      </c>
-      <c r="D117" s="161"/>
-      <c r="E117" s="162"/>
-      <c r="F117" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="G117" s="51"/>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B118" s="158"/>
-      <c r="C118" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="D118" s="119"/>
-      <c r="E118" s="120"/>
-      <c r="F118" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="G118" s="26"/>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B119" s="158"/>
-      <c r="C119" s="118" t="s">
+      <c r="D116" s="114"/>
+      <c r="E116" s="115"/>
+      <c r="F116" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="D119" s="119"/>
-      <c r="E119" s="120"/>
-      <c r="F119" s="36" t="s">
+      <c r="G116" s="26"/>
+    </row>
+    <row r="117" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="109"/>
+      <c r="C117" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="G119" s="26"/>
-    </row>
-    <row r="120" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="159"/>
-      <c r="C120" s="163" t="s">
-        <v>136</v>
-      </c>
-      <c r="D120" s="164"/>
-      <c r="E120" s="165"/>
-      <c r="F120" s="56" t="s">
+      <c r="D117" s="117"/>
+      <c r="E117" s="118"/>
+      <c r="F117" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="G120" s="35"/>
-    </row>
-    <row r="121" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="G117" s="35"/>
+    </row>
+    <row r="118" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="129">
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="C57:E57"/>
+  <mergeCells count="128">
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="B94:B108"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="B83:B90"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="B69:B77"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="B48:B68"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C55:E55"/>
     <mergeCell ref="C56:E56"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="C19:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="B33:B50"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B4:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
@@ -4121,105 +4140,41 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B4:B32"/>
-    <mergeCell ref="C43:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="B72:B80"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="B51:B71"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="B86:B93"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="B112:B116"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="B114:B117"/>
     <mergeCell ref="C114:E114"/>
     <mergeCell ref="C115:E115"/>
     <mergeCell ref="C116:E116"/>
-    <mergeCell ref="B97:B111"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="C19:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="B33:B47"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" location="Collections!E4" display="Users"/>
-    <hyperlink ref="B33:B50" location="Collections!J4" display="Post Collection"/>
-    <hyperlink ref="B51:B71" location="Collections!O4" display="Books Collection"/>
-    <hyperlink ref="B72:B80" location="Collections!A4" display="Authors Collection"/>
-    <hyperlink ref="B81:B85" location="Collections!S4" display="Publishers Collection"/>
-    <hyperlink ref="B86:B93" location="Collections!S19" display="Reports Collection"/>
-    <hyperlink ref="B94:B96" location="Collections!A19" display="Category Collection"/>
-    <hyperlink ref="B97:B111" location="Collections!W4" display="Groups Collection"/>
-    <hyperlink ref="B112:B116" location="Collections!W19" display="Slides Collection"/>
+    <hyperlink ref="B48:B68" location="Collections!O4" display="Books Collection"/>
+    <hyperlink ref="B69:B77" location="Collections!A4" display="Authors Collection"/>
+    <hyperlink ref="B78:B82" location="Collections!S4" display="Publishers Collection"/>
+    <hyperlink ref="B83:B90" location="Collections!S19" display="Reports Collection"/>
+    <hyperlink ref="B91:B93" location="Collections!A19" display="Category Collection"/>
+    <hyperlink ref="B94:B108" location="Collections!W4" display="Groups Collection"/>
+    <hyperlink ref="B109:B113" location="Collections!W19" display="Slides Collection"/>
+    <hyperlink ref="B33:B47" location="Collections!J4" display="Post Collection"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
